--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="228">
   <si>
     <t>Notes</t>
   </si>
@@ -508,9 +508,6 @@
   </si>
   <si>
     <t>90% are assumed to commence payment immediately and 10% are assumed to defer payment to superannuatin age</t>
-  </si>
-  <si>
-    <t>C16</t>
   </si>
   <si>
     <t>C6</t>
@@ -1069,7 +1066,7 @@
     <t>M11</t>
   </si>
   <si>
-    <t>C14</t>
+    <t>C10</t>
   </si>
 </sst>
 </file>
@@ -1080,9 +1077,9 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1439,7 +1436,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -1468,34 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1505,9 +1475,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,7 +1505,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1620,21 +1587,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
@@ -1685,12 +1643,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1824,6 +1776,51 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3184,32 +3181,32 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="175"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>157</v>
-      </c>
       <c r="D4" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>156</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,43 +3214,43 @@
         <v>109</v>
       </c>
       <c r="B5" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="108" t="s">
         <v>162</v>
-      </c>
-      <c r="E5" s="119" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="177" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="177"/>
+      <c r="D6" s="178" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="178" t="s">
         <v>164</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="176">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
@@ -3268,12 +3265,12 @@
       <c r="A9" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="B9" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -3388,15 +3385,15 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="18" style="127" customWidth="1"/>
+    <col min="5" max="6" width="18" style="114" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="56.28515625" customWidth="1"/>
@@ -3413,7 +3410,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3421,1256 +3418,1256 @@
         <v>47</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="124" t="s">
+      <c r="A5" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="E5" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="F5" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="G5" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="H5" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="I5" s="111" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="124" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="125">
+      <c r="A6" s="112">
         <v>5</v>
       </c>
-      <c r="B6" s="125">
+      <c r="B6" s="112">
         <v>50</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="121">
         <v>0</v>
       </c>
-      <c r="D6" s="134">
+      <c r="D6" s="121">
         <v>0</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="121">
         <v>0</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="121">
         <v>0</v>
       </c>
-      <c r="G6" s="134">
+      <c r="G6" s="121">
         <v>0</v>
       </c>
-      <c r="H6" s="134">
+      <c r="H6" s="121">
         <v>0</v>
       </c>
-      <c r="I6" s="134">
+      <c r="I6" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="125">
+      <c r="A7" s="112">
         <v>5</v>
       </c>
-      <c r="B7" s="125">
+      <c r="B7" s="112">
         <v>55</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="121">
         <v>0</v>
       </c>
-      <c r="D7" s="134">
+      <c r="D7" s="121">
         <v>0</v>
       </c>
-      <c r="E7" s="134">
+      <c r="E7" s="121">
         <v>0</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="121">
         <v>0</v>
       </c>
-      <c r="G7" s="134">
+      <c r="G7" s="121">
         <v>0</v>
       </c>
-      <c r="H7" s="134">
+      <c r="H7" s="121">
         <v>0</v>
       </c>
-      <c r="I7" s="131">
+      <c r="I7" s="118">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="125">
+      <c r="A8" s="112">
         <v>5</v>
       </c>
-      <c r="B8" s="125">
+      <c r="B8" s="112">
         <v>60</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="118">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="118">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E8" s="129">
+      <c r="E8" s="116">
         <v>0.12</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="118">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="118">
         <v>0.09</v>
       </c>
-      <c r="H8" s="131">
+      <c r="H8" s="118">
         <v>0.11</v>
       </c>
-      <c r="I8" s="131">
+      <c r="I8" s="118">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="125">
+      <c r="A9" s="112">
         <v>5</v>
       </c>
-      <c r="B9" s="125">
+      <c r="B9" s="112">
         <v>65</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="118">
         <v>0.25</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="118">
         <v>0.4</v>
       </c>
-      <c r="E9" s="129">
+      <c r="E9" s="116">
         <v>0.3</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="118">
         <v>0.35</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="118">
         <v>0.25</v>
       </c>
-      <c r="I9" s="131">
+      <c r="I9" s="118">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="125">
+      <c r="A10" s="112">
         <v>5</v>
       </c>
-      <c r="B10" s="125">
+      <c r="B10" s="112">
         <v>70</v>
       </c>
-      <c r="C10" s="131">
+      <c r="C10" s="118">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D10" s="131">
+      <c r="D10" s="118">
         <v>0.2</v>
       </c>
-      <c r="E10" s="129">
+      <c r="E10" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="118">
         <v>0.3</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H10" s="131">
+      <c r="H10" s="118">
         <v>0.25</v>
       </c>
-      <c r="I10" s="131">
+      <c r="I10" s="118">
         <v>0.3</v>
       </c>
-      <c r="M10" s="123"/>
+      <c r="M10" s="110"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="125">
+      <c r="A11" s="112">
         <v>5</v>
       </c>
-      <c r="B11" s="125">
+      <c r="B11" s="112">
         <v>75</v>
       </c>
-      <c r="C11" s="131">
+      <c r="C11" s="118">
         <v>1</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="118">
         <v>1</v>
       </c>
-      <c r="E11" s="129">
+      <c r="E11" s="116">
         <v>1</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="119">
         <v>1</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="119">
         <v>1</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="118">
         <v>1</v>
       </c>
-      <c r="I11" s="131">
+      <c r="I11" s="118">
         <v>1</v>
       </c>
-      <c r="M11" s="123"/>
+      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="126">
+      <c r="A12" s="113">
         <v>10</v>
       </c>
-      <c r="B12" s="126">
+      <c r="B12" s="113">
         <v>50</v>
       </c>
-      <c r="C12" s="135">
+      <c r="C12" s="122">
         <v>0</v>
       </c>
-      <c r="D12" s="135">
+      <c r="D12" s="122">
         <v>0</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="122">
         <v>0</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="122">
         <v>0</v>
       </c>
-      <c r="G12" s="135">
+      <c r="G12" s="122">
         <v>0</v>
       </c>
-      <c r="H12" s="135">
+      <c r="H12" s="122">
         <v>0</v>
       </c>
-      <c r="I12" s="135">
+      <c r="I12" s="122">
         <v>0</v>
       </c>
-      <c r="M12" s="123"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="126">
+      <c r="A13" s="113">
         <v>10</v>
       </c>
-      <c r="B13" s="126">
+      <c r="B13" s="113">
         <v>55</v>
       </c>
-      <c r="C13" s="135">
+      <c r="C13" s="122">
         <v>0</v>
       </c>
-      <c r="D13" s="135">
+      <c r="D13" s="122">
         <v>0</v>
       </c>
-      <c r="E13" s="135">
+      <c r="E13" s="122">
         <v>0</v>
       </c>
-      <c r="F13" s="135">
+      <c r="F13" s="122">
         <v>0</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="122">
         <v>0</v>
       </c>
-      <c r="H13" s="135">
+      <c r="H13" s="122">
         <v>0</v>
       </c>
-      <c r="I13" s="136">
+      <c r="I13" s="123">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="126">
+      <c r="A14" s="113">
         <v>10</v>
       </c>
-      <c r="B14" s="126">
+      <c r="B14" s="113">
         <v>60</v>
       </c>
-      <c r="C14" s="136">
+      <c r="C14" s="123">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D14" s="136">
+      <c r="D14" s="123">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E14" s="137">
+      <c r="E14" s="124">
         <v>0.12</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="123">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="123">
         <v>0.09</v>
       </c>
-      <c r="H14" s="136">
+      <c r="H14" s="123">
         <v>0.11</v>
       </c>
-      <c r="I14" s="136">
+      <c r="I14" s="123">
         <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="126">
+      <c r="A15" s="113">
         <v>10</v>
       </c>
-      <c r="B15" s="126">
+      <c r="B15" s="113">
         <v>65</v>
       </c>
-      <c r="C15" s="136">
+      <c r="C15" s="123">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="123">
         <v>0.3</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="117">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F15" s="136">
+      <c r="F15" s="123">
         <v>0.375</v>
       </c>
-      <c r="G15" s="136">
+      <c r="G15" s="123">
         <v>0.3</v>
       </c>
-      <c r="H15" s="136">
+      <c r="H15" s="123">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I15" s="136">
+      <c r="I15" s="123">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="126">
+      <c r="A16" s="113">
         <v>10</v>
       </c>
-      <c r="B16" s="126">
+      <c r="B16" s="113">
         <v>70</v>
       </c>
-      <c r="C16" s="136">
+      <c r="C16" s="123">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D16" s="136">
+      <c r="D16" s="123">
         <v>0.2</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="117">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F16" s="136">
+      <c r="F16" s="123">
         <v>0.3</v>
       </c>
-      <c r="G16" s="136">
+      <c r="G16" s="123">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H16" s="136">
+      <c r="H16" s="123">
         <v>0.25</v>
       </c>
-      <c r="I16" s="136">
+      <c r="I16" s="123">
         <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="126">
+      <c r="A17" s="113">
         <v>10</v>
       </c>
-      <c r="B17" s="126">
+      <c r="B17" s="113">
         <v>75</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="123">
         <v>1</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="123">
         <v>1</v>
       </c>
-      <c r="E17" s="130">
+      <c r="E17" s="117">
         <v>1</v>
       </c>
-      <c r="F17" s="138">
+      <c r="F17" s="125">
         <v>1</v>
       </c>
-      <c r="G17" s="138">
+      <c r="G17" s="125">
         <v>1</v>
       </c>
-      <c r="H17" s="136">
+      <c r="H17" s="123">
         <v>1</v>
       </c>
-      <c r="I17" s="136">
+      <c r="I17" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="125">
+      <c r="A18" s="112">
         <v>15</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="112">
         <v>50</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="121">
         <v>0</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="121">
         <v>0</v>
       </c>
-      <c r="E18" s="134">
+      <c r="E18" s="121">
         <v>0</v>
       </c>
-      <c r="F18" s="134">
+      <c r="F18" s="121">
         <v>0</v>
       </c>
-      <c r="G18" s="134">
+      <c r="G18" s="121">
         <v>0</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="121">
         <v>0</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="118">
         <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="125">
+      <c r="A19" s="112">
         <v>15</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="112">
         <v>55</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="121">
         <v>0</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="121">
         <v>0</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="121">
         <v>0</v>
       </c>
-      <c r="F19" s="134">
+      <c r="F19" s="121">
         <v>0</v>
       </c>
-      <c r="G19" s="134">
+      <c r="G19" s="121">
         <v>0</v>
       </c>
-      <c r="H19" s="134">
+      <c r="H19" s="121">
         <v>0</v>
       </c>
-      <c r="I19" s="131">
+      <c r="I19" s="118">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="125">
+      <c r="A20" s="112">
         <v>15</v>
       </c>
-      <c r="B20" s="125">
+      <c r="B20" s="112">
         <v>60</v>
       </c>
-      <c r="C20" s="131">
+      <c r="C20" s="118">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="118">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E20" s="129">
+      <c r="E20" s="116">
         <v>0.12</v>
       </c>
-      <c r="F20" s="129">
+      <c r="F20" s="116">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="112">
         <v>0.09</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="112">
         <v>0.11</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="118">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="125">
+      <c r="A21" s="112">
         <v>15</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="112">
         <v>65</v>
       </c>
-      <c r="C21" s="131">
+      <c r="C21" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="118">
         <v>0.3</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="116">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F21" s="129">
+      <c r="F21" s="116">
         <v>0.375</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="112">
         <v>0.3</v>
       </c>
-      <c r="H21" s="125">
+      <c r="H21" s="112">
         <v>0.27</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="118">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="125">
+      <c r="A22" s="112">
         <v>15</v>
       </c>
-      <c r="B22" s="125">
+      <c r="B22" s="112">
         <v>70</v>
       </c>
-      <c r="C22" s="131">
+      <c r="C22" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D22" s="131">
+      <c r="D22" s="118">
         <v>0.2</v>
       </c>
-      <c r="E22" s="129">
+      <c r="E22" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F22" s="129">
+      <c r="F22" s="116">
         <v>0.3</v>
       </c>
-      <c r="G22" s="125">
+      <c r="G22" s="112">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H22" s="125">
+      <c r="H22" s="112">
         <v>0.25</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="118">
         <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="125">
+      <c r="A23" s="112">
         <v>15</v>
       </c>
-      <c r="B23" s="125">
+      <c r="B23" s="112">
         <v>75</v>
       </c>
-      <c r="C23" s="131">
+      <c r="C23" s="118">
         <v>1</v>
       </c>
-      <c r="D23" s="131">
+      <c r="D23" s="118">
         <v>1</v>
       </c>
-      <c r="E23" s="129">
+      <c r="E23" s="116">
         <v>1</v>
       </c>
-      <c r="F23" s="129">
+      <c r="F23" s="116">
         <v>1</v>
       </c>
-      <c r="G23" s="125">
+      <c r="G23" s="112">
         <v>1</v>
       </c>
-      <c r="H23" s="125">
+      <c r="H23" s="112">
         <v>1</v>
       </c>
-      <c r="I23" s="131">
+      <c r="I23" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="126">
+      <c r="A24" s="113">
         <v>20</v>
       </c>
-      <c r="B24" s="126">
+      <c r="B24" s="113">
         <v>50</v>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="123">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D24" s="136">
+      <c r="D24" s="123">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E24" s="130">
+      <c r="E24" s="117">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F24" s="136">
+      <c r="F24" s="123">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G24" s="126">
+      <c r="G24" s="113">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H24" s="126">
+      <c r="H24" s="113">
         <v>0.04</v>
       </c>
-      <c r="I24" s="136">
+      <c r="I24" s="123">
         <v>0.09</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="126">
+      <c r="A25" s="113">
         <v>20</v>
       </c>
-      <c r="B25" s="126">
+      <c r="B25" s="113">
         <v>55</v>
       </c>
-      <c r="C25" s="136">
+      <c r="C25" s="123">
         <v>0.05</v>
       </c>
-      <c r="D25" s="136">
+      <c r="D25" s="123">
         <v>0.05</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="117">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F25" s="136">
+      <c r="F25" s="123">
         <v>0.06</v>
       </c>
-      <c r="G25" s="126">
+      <c r="G25" s="113">
         <v>0.04</v>
       </c>
-      <c r="H25" s="126">
+      <c r="H25" s="113">
         <v>0.05</v>
       </c>
-      <c r="I25" s="136">
+      <c r="I25" s="123">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="126">
+      <c r="A26" s="113">
         <v>20</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="113">
         <v>60</v>
       </c>
-      <c r="C26" s="136">
+      <c r="C26" s="123">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D26" s="136">
+      <c r="D26" s="123">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E26" s="117">
         <v>0.12</v>
       </c>
-      <c r="F26" s="139">
+      <c r="F26" s="126">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G26" s="126">
+      <c r="G26" s="113">
         <v>0.09</v>
       </c>
-      <c r="H26" s="126">
+      <c r="H26" s="113">
         <v>0.11</v>
       </c>
-      <c r="I26" s="136">
+      <c r="I26" s="123">
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="126">
+      <c r="A27" s="113">
         <v>20</v>
       </c>
-      <c r="B27" s="126">
+      <c r="B27" s="113">
         <v>65</v>
       </c>
-      <c r="C27" s="136">
+      <c r="C27" s="123">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D27" s="136">
+      <c r="D27" s="123">
         <v>0.3</v>
       </c>
-      <c r="E27" s="130">
+      <c r="E27" s="117">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F27" s="139">
+      <c r="F27" s="126">
         <v>0.375</v>
       </c>
-      <c r="G27" s="126">
+      <c r="G27" s="113">
         <v>0.3</v>
       </c>
-      <c r="H27" s="126">
+      <c r="H27" s="113">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I27" s="136">
+      <c r="I27" s="123">
         <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="126">
+      <c r="A28" s="113">
         <v>20</v>
       </c>
-      <c r="B28" s="126">
+      <c r="B28" s="113">
         <v>70</v>
       </c>
-      <c r="C28" s="136">
+      <c r="C28" s="123">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D28" s="136">
+      <c r="D28" s="123">
         <v>0.2</v>
       </c>
-      <c r="E28" s="130">
+      <c r="E28" s="117">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F28" s="139">
+      <c r="F28" s="126">
         <v>0.3</v>
       </c>
-      <c r="G28" s="126">
+      <c r="G28" s="113">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H28" s="126">
+      <c r="H28" s="113">
         <v>0.25</v>
       </c>
-      <c r="I28" s="136">
+      <c r="I28" s="123">
         <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="126">
+      <c r="A29" s="113">
         <v>20</v>
       </c>
-      <c r="B29" s="126">
+      <c r="B29" s="113">
         <v>75</v>
       </c>
-      <c r="C29" s="136">
+      <c r="C29" s="123">
         <v>1</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="123">
         <v>1</v>
       </c>
-      <c r="E29" s="130">
+      <c r="E29" s="117">
         <v>1</v>
       </c>
-      <c r="F29" s="137">
+      <c r="F29" s="124">
         <v>1</v>
       </c>
-      <c r="G29" s="126">
+      <c r="G29" s="113">
         <v>1</v>
       </c>
-      <c r="H29" s="126">
+      <c r="H29" s="113">
         <v>1</v>
       </c>
-      <c r="I29" s="136">
+      <c r="I29" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="125">
+      <c r="A30" s="112">
         <v>25</v>
       </c>
-      <c r="B30" s="125">
+      <c r="B30" s="112">
         <v>50</v>
       </c>
-      <c r="C30" s="131">
+      <c r="C30" s="118">
         <v>0.08</v>
       </c>
-      <c r="D30" s="131">
+      <c r="D30" s="118">
         <v>0.06</v>
       </c>
-      <c r="E30" s="133">
+      <c r="E30" s="120">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="118">
         <v>5.5E-2</v>
       </c>
-      <c r="G30" s="131">
+      <c r="G30" s="118">
         <v>0.08</v>
       </c>
-      <c r="H30" s="131">
+      <c r="H30" s="118">
         <v>5.5E-2</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="118">
         <v>0.09</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="125">
+      <c r="A31" s="112">
         <v>25</v>
       </c>
-      <c r="B31" s="125">
+      <c r="B31" s="112">
         <v>55</v>
       </c>
-      <c r="C31" s="131">
+      <c r="C31" s="118">
         <v>0.1</v>
       </c>
-      <c r="D31" s="131">
+      <c r="D31" s="118">
         <v>0.08</v>
       </c>
-      <c r="E31" s="129">
+      <c r="E31" s="116">
         <v>0.09</v>
       </c>
-      <c r="F31" s="131">
+      <c r="F31" s="118">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="118">
         <v>0.1</v>
       </c>
-      <c r="H31" s="131">
+      <c r="H31" s="118">
         <v>0.09</v>
       </c>
-      <c r="I31" s="131">
+      <c r="I31" s="118">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="125">
+      <c r="A32" s="112">
         <v>25</v>
       </c>
-      <c r="B32" s="125">
+      <c r="B32" s="112">
         <v>60</v>
       </c>
-      <c r="C32" s="131">
+      <c r="C32" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D32" s="131">
+      <c r="D32" s="118">
         <v>0.25</v>
       </c>
-      <c r="E32" s="129">
+      <c r="E32" s="116">
         <v>0.3</v>
       </c>
-      <c r="F32" s="131">
+      <c r="F32" s="118">
         <v>0.45</v>
       </c>
-      <c r="G32" s="131">
+      <c r="G32" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H32" s="131">
+      <c r="H32" s="118">
         <v>0.25</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="118">
         <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="125">
+      <c r="A33" s="112">
         <v>25</v>
       </c>
-      <c r="B33" s="125">
+      <c r="B33" s="112">
         <v>65</v>
       </c>
-      <c r="C33" s="131">
+      <c r="C33" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D33" s="131">
+      <c r="D33" s="118">
         <v>0.3</v>
       </c>
-      <c r="E33" s="129">
+      <c r="E33" s="116">
         <v>0.2</v>
       </c>
-      <c r="F33" s="131">
+      <c r="F33" s="118">
         <v>0.35</v>
       </c>
-      <c r="G33" s="131">
+      <c r="G33" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H33" s="131">
+      <c r="H33" s="118">
         <v>0.35</v>
       </c>
-      <c r="I33" s="131">
+      <c r="I33" s="118">
         <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="125">
+      <c r="A34" s="112">
         <v>25</v>
       </c>
-      <c r="B34" s="125">
+      <c r="B34" s="112">
         <v>70</v>
       </c>
-      <c r="C34" s="131">
+      <c r="C34" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D34" s="131">
+      <c r="D34" s="118">
         <v>0.2</v>
       </c>
-      <c r="E34" s="129">
+      <c r="E34" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F34" s="131">
+      <c r="F34" s="118">
         <v>0.3</v>
       </c>
-      <c r="G34" s="131">
+      <c r="G34" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H34" s="131">
+      <c r="H34" s="118">
         <v>0.25</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="118">
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="125">
+      <c r="A35" s="112">
         <v>25</v>
       </c>
-      <c r="B35" s="125">
+      <c r="B35" s="112">
         <v>75</v>
       </c>
-      <c r="C35" s="131">
+      <c r="C35" s="118">
         <v>1</v>
       </c>
-      <c r="D35" s="131">
+      <c r="D35" s="118">
         <v>1</v>
       </c>
-      <c r="E35" s="129">
+      <c r="E35" s="116">
         <v>1</v>
       </c>
-      <c r="F35" s="132">
+      <c r="F35" s="119">
         <v>1</v>
       </c>
-      <c r="G35" s="132">
+      <c r="G35" s="119">
         <v>1</v>
       </c>
-      <c r="H35" s="131">
+      <c r="H35" s="118">
         <v>1</v>
       </c>
-      <c r="I35" s="131">
+      <c r="I35" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="126">
+      <c r="A36" s="113">
         <v>30</v>
       </c>
-      <c r="B36" s="126">
+      <c r="B36" s="113">
         <v>50</v>
       </c>
-      <c r="C36" s="136">
+      <c r="C36" s="123">
         <v>0.35</v>
       </c>
-      <c r="D36" s="136">
+      <c r="D36" s="123">
         <v>0.4</v>
       </c>
-      <c r="E36" s="137">
+      <c r="E36" s="124">
         <v>0.3</v>
       </c>
-      <c r="F36" s="136">
+      <c r="F36" s="123">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G36" s="136">
+      <c r="G36" s="123">
         <v>0.3</v>
       </c>
-      <c r="H36" s="136">
+      <c r="H36" s="123">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I36" s="136">
+      <c r="I36" s="123">
         <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="126">
+      <c r="A37" s="113">
         <v>30</v>
       </c>
-      <c r="B37" s="126">
+      <c r="B37" s="113">
         <v>55</v>
       </c>
-      <c r="C37" s="136">
+      <c r="C37" s="123">
         <v>0.35</v>
       </c>
-      <c r="D37" s="136">
+      <c r="D37" s="123">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E37" s="130">
+      <c r="E37" s="117">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F37" s="136">
+      <c r="F37" s="123">
         <v>0.4</v>
       </c>
-      <c r="G37" s="136">
+      <c r="G37" s="123">
         <v>0.25</v>
       </c>
-      <c r="H37" s="136">
+      <c r="H37" s="123">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I37" s="136">
+      <c r="I37" s="123">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="126">
+      <c r="A38" s="113">
         <v>30</v>
       </c>
-      <c r="B38" s="126">
+      <c r="B38" s="113">
         <v>60</v>
       </c>
-      <c r="C38" s="136">
+      <c r="C38" s="123">
         <v>0.3</v>
       </c>
-      <c r="D38" s="136">
+      <c r="D38" s="123">
         <v>0.3</v>
       </c>
-      <c r="E38" s="130">
+      <c r="E38" s="117">
         <v>0.25</v>
       </c>
-      <c r="F38" s="136">
+      <c r="F38" s="123">
         <v>0.5</v>
       </c>
-      <c r="G38" s="136">
+      <c r="G38" s="123">
         <v>0.25</v>
       </c>
-      <c r="H38" s="136">
+      <c r="H38" s="123">
         <v>0.25</v>
       </c>
-      <c r="I38" s="136">
+      <c r="I38" s="123">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="126">
+      <c r="A39" s="113">
         <v>30</v>
       </c>
-      <c r="B39" s="126">
+      <c r="B39" s="113">
         <v>65</v>
       </c>
-      <c r="C39" s="136">
+      <c r="C39" s="123">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D39" s="136">
+      <c r="D39" s="123">
         <v>0.3</v>
       </c>
-      <c r="E39" s="130">
+      <c r="E39" s="117">
         <v>0.2</v>
       </c>
-      <c r="F39" s="136">
+      <c r="F39" s="123">
         <v>0.35</v>
       </c>
-      <c r="G39" s="136">
+      <c r="G39" s="123">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H39" s="136">
+      <c r="H39" s="123">
         <v>0.35</v>
       </c>
-      <c r="I39" s="136">
+      <c r="I39" s="123">
         <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="126">
+      <c r="A40" s="113">
         <v>30</v>
       </c>
-      <c r="B40" s="126">
+      <c r="B40" s="113">
         <v>70</v>
       </c>
-      <c r="C40" s="136">
+      <c r="C40" s="123">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D40" s="136">
+      <c r="D40" s="123">
         <v>0.2</v>
       </c>
-      <c r="E40" s="130">
+      <c r="E40" s="117">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F40" s="136">
+      <c r="F40" s="123">
         <v>0.3</v>
       </c>
-      <c r="G40" s="136">
+      <c r="G40" s="123">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H40" s="136">
+      <c r="H40" s="123">
         <v>0.25</v>
       </c>
-      <c r="I40" s="136">
+      <c r="I40" s="123">
         <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="126">
+      <c r="A41" s="113">
         <v>30</v>
       </c>
-      <c r="B41" s="126">
+      <c r="B41" s="113">
         <v>75</v>
       </c>
-      <c r="C41" s="136">
+      <c r="C41" s="123">
         <v>1</v>
       </c>
-      <c r="D41" s="136">
+      <c r="D41" s="123">
         <v>1</v>
       </c>
-      <c r="E41" s="130">
+      <c r="E41" s="117">
         <v>1</v>
       </c>
-      <c r="F41" s="138">
+      <c r="F41" s="125">
         <v>1</v>
       </c>
-      <c r="G41" s="138">
+      <c r="G41" s="125">
         <v>1</v>
       </c>
-      <c r="H41" s="136">
+      <c r="H41" s="123">
         <v>1</v>
       </c>
-      <c r="I41" s="136">
+      <c r="I41" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="125">
+      <c r="A42" s="112">
         <v>35</v>
       </c>
-      <c r="B42" s="125">
+      <c r="B42" s="112">
         <v>50</v>
       </c>
-      <c r="C42" s="131">
+      <c r="C42" s="118">
         <v>0.2</v>
       </c>
-      <c r="D42" s="131">
+      <c r="D42" s="118">
         <v>0.3</v>
       </c>
-      <c r="E42" s="133">
+      <c r="E42" s="120">
         <v>0.3</v>
       </c>
-      <c r="F42" s="131">
+      <c r="F42" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G42" s="131">
+      <c r="G42" s="118">
         <v>0.15</v>
       </c>
-      <c r="H42" s="131">
+      <c r="H42" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I42" s="131">
+      <c r="I42" s="118">
         <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="125">
+      <c r="A43" s="112">
         <v>35</v>
       </c>
-      <c r="B43" s="125">
+      <c r="B43" s="112">
         <v>55</v>
       </c>
-      <c r="C43" s="131">
+      <c r="C43" s="118">
         <v>0.2</v>
       </c>
-      <c r="D43" s="131">
+      <c r="D43" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="116">
         <v>0.25</v>
       </c>
-      <c r="F43" s="131">
+      <c r="F43" s="118">
         <v>0.3</v>
       </c>
-      <c r="G43" s="131">
+      <c r="G43" s="118">
         <v>0.2</v>
       </c>
-      <c r="H43" s="131">
+      <c r="H43" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I43" s="131">
+      <c r="I43" s="118">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="125">
+      <c r="A44" s="112">
         <v>35</v>
       </c>
-      <c r="B44" s="125">
+      <c r="B44" s="112">
         <v>60</v>
       </c>
-      <c r="C44" s="131">
+      <c r="C44" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D44" s="131">
+      <c r="D44" s="118">
         <v>0.2</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="116">
         <v>0.25</v>
       </c>
-      <c r="F44" s="131">
+      <c r="F44" s="118">
         <v>0.32500000000000001</v>
       </c>
-      <c r="G44" s="131">
+      <c r="G44" s="118">
         <v>0.25</v>
       </c>
-      <c r="H44" s="131">
+      <c r="H44" s="118">
         <v>0.25</v>
       </c>
-      <c r="I44" s="131">
+      <c r="I44" s="118">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="125">
+      <c r="A45" s="112">
         <v>35</v>
       </c>
-      <c r="B45" s="125">
+      <c r="B45" s="112">
         <v>65</v>
       </c>
-      <c r="C45" s="131">
+      <c r="C45" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D45" s="131">
+      <c r="D45" s="118">
         <v>0.3</v>
       </c>
-      <c r="E45" s="129">
+      <c r="E45" s="116">
         <v>0.2</v>
       </c>
-      <c r="F45" s="131">
+      <c r="F45" s="118">
         <v>0.35</v>
       </c>
-      <c r="G45" s="131">
+      <c r="G45" s="118">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H45" s="131">
+      <c r="H45" s="118">
         <v>0.35</v>
       </c>
-      <c r="I45" s="131">
+      <c r="I45" s="118">
         <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="125">
+      <c r="A46" s="112">
         <v>35</v>
       </c>
-      <c r="B46" s="125">
+      <c r="B46" s="112">
         <v>70</v>
       </c>
-      <c r="C46" s="131">
+      <c r="C46" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D46" s="131">
+      <c r="D46" s="118">
         <v>0.2</v>
       </c>
-      <c r="E46" s="129">
+      <c r="E46" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F46" s="131">
+      <c r="F46" s="118">
         <v>0.3</v>
       </c>
-      <c r="G46" s="131">
+      <c r="G46" s="118">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H46" s="131">
+      <c r="H46" s="118">
         <v>0.25</v>
       </c>
-      <c r="I46" s="131">
+      <c r="I46" s="118">
         <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="125">
+      <c r="A47" s="112">
         <v>35</v>
       </c>
-      <c r="B47" s="125">
+      <c r="B47" s="112">
         <v>75</v>
       </c>
-      <c r="C47" s="131">
+      <c r="C47" s="118">
         <v>1</v>
       </c>
-      <c r="D47" s="131">
+      <c r="D47" s="118">
         <v>1</v>
       </c>
-      <c r="E47" s="129">
+      <c r="E47" s="116">
         <v>1</v>
       </c>
-      <c r="F47" s="132">
+      <c r="F47" s="119">
         <v>1</v>
       </c>
-      <c r="G47" s="132">
+      <c r="G47" s="119">
         <v>1</v>
       </c>
-      <c r="H47" s="131">
+      <c r="H47" s="118">
         <v>1</v>
       </c>
-      <c r="I47" s="131">
+      <c r="I47" s="118">
         <v>1</v>
       </c>
     </row>
@@ -4712,57 +4709,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="120"/>
+      <c r="B6" s="181" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="181"/>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>167</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="179"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="71"/>
+      <c r="B9" s="180" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4786,7 +4783,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4816,226 +4813,226 @@
         <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="182" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="183" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="E5" s="183"/>
+      <c r="F5" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="G5" s="183"/>
+      <c r="H5" s="183" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="183"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="182"/>
+      <c r="B6" s="184" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="129" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="141" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="142" t="s">
+      <c r="B7" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="143" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="142" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="154" t="s">
+      <c r="C7" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="154" t="s">
+      <c r="D7" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="154" t="s">
+      <c r="E7" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="F7" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="154" t="s">
+      <c r="G7" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="H7" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="154" t="s">
+      <c r="I7" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="154" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="145">
+      <c r="A8" s="130">
         <v>0</v>
       </c>
-      <c r="B8" s="146">
+      <c r="B8" s="131">
         <v>0.18</v>
       </c>
-      <c r="C8" s="146">
+      <c r="C8" s="131">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="131">
         <v>0.19</v>
       </c>
-      <c r="E8" s="146">
+      <c r="E8" s="131">
         <v>0.17</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="132">
         <v>0.13</v>
       </c>
-      <c r="G8" s="146">
+      <c r="G8" s="131">
         <v>0.13</v>
       </c>
-      <c r="H8" s="148">
+      <c r="H8" s="133">
         <v>0.19</v>
       </c>
-      <c r="I8" s="148">
+      <c r="I8" s="133">
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149">
+      <c r="A9" s="134">
         <v>1</v>
       </c>
-      <c r="B9" s="150">
+      <c r="B9" s="135">
         <v>0.155</v>
       </c>
-      <c r="C9" s="150">
+      <c r="C9" s="135">
         <v>0.17</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="135">
         <v>0.16</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="135">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="136">
         <v>0.1</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="135">
         <v>0.1</v>
       </c>
-      <c r="H9" s="152">
+      <c r="H9" s="137">
         <v>0.16</v>
       </c>
-      <c r="I9" s="152">
+      <c r="I9" s="137">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="149">
+      <c r="A10" s="134">
         <v>2</v>
       </c>
-      <c r="B10" s="150">
+      <c r="B10" s="135">
         <v>0.13</v>
       </c>
-      <c r="C10" s="150">
+      <c r="C10" s="135">
         <v>0.14499999999999999</v>
       </c>
-      <c r="D10" s="150">
+      <c r="D10" s="135">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="135">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F10" s="151">
+      <c r="F10" s="136">
         <v>0.09</v>
       </c>
-      <c r="G10" s="150">
+      <c r="G10" s="135">
         <v>0.09</v>
       </c>
-      <c r="H10" s="152">
+      <c r="H10" s="137">
         <v>0.13</v>
       </c>
-      <c r="I10" s="152">
+      <c r="I10" s="137">
         <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="149">
+      <c r="A11" s="134">
         <v>3</v>
       </c>
-      <c r="B11" s="150">
+      <c r="B11" s="135">
         <v>0.11</v>
       </c>
-      <c r="C11" s="150">
+      <c r="C11" s="135">
         <v>0.115</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="135">
         <v>0.12</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="135">
         <v>0.12</v>
       </c>
-      <c r="F11" s="151">
+      <c r="F11" s="136">
         <v>0.06</v>
       </c>
-      <c r="G11" s="150">
+      <c r="G11" s="135">
         <v>0.06</v>
       </c>
-      <c r="H11" s="152">
+      <c r="H11" s="137">
         <v>0.115</v>
       </c>
-      <c r="I11" s="152">
+      <c r="I11" s="137">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149">
+      <c r="A12" s="134">
         <v>4</v>
       </c>
-      <c r="B12" s="150">
+      <c r="B12" s="135">
         <v>0.09</v>
       </c>
-      <c r="C12" s="150">
+      <c r="C12" s="135">
         <v>0.1</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="135">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="135">
         <v>0.1</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="136">
         <v>0.06</v>
       </c>
-      <c r="G12" s="150">
+      <c r="G12" s="135">
         <v>0.06</v>
       </c>
-      <c r="H12" s="152">
+      <c r="H12" s="137">
         <v>0.1</v>
       </c>
-      <c r="I12" s="152">
+      <c r="I12" s="137">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
@@ -5090,272 +5087,272 @@
         <v>47</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="141" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="D7" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="E7" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="F7" s="141" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="141" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="156" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="156" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="156" t="s">
+      <c r="I7" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="156" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="157">
+      <c r="A8" s="142">
         <v>25</v>
       </c>
-      <c r="B8" s="158">
+      <c r="B8" s="143">
         <v>0.08</v>
       </c>
-      <c r="C8" s="159">
+      <c r="C8" s="144">
         <v>0.11</v>
       </c>
-      <c r="D8" s="158">
+      <c r="D8" s="143">
         <v>0.08</v>
       </c>
-      <c r="E8" s="159">
+      <c r="E8" s="144">
         <v>0.09</v>
       </c>
-      <c r="F8" s="160">
+      <c r="F8" s="145">
         <v>0.08</v>
       </c>
-      <c r="G8" s="161">
+      <c r="G8" s="146">
         <v>0.12</v>
       </c>
-      <c r="H8" s="160">
+      <c r="H8" s="145">
         <v>0.04</v>
       </c>
-      <c r="I8" s="161">
+      <c r="I8" s="146">
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="157">
+      <c r="A9" s="142">
         <v>30</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="147">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C9" s="163">
+      <c r="C9" s="148">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="147">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E9" s="148">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F9" s="164">
+      <c r="F9" s="149">
         <v>0.06</v>
       </c>
-      <c r="G9" s="165">
+      <c r="G9" s="150">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H9" s="164">
+      <c r="H9" s="149">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I9" s="165">
+      <c r="I9" s="150">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="157">
+      <c r="A10" s="142">
         <v>35</v>
       </c>
-      <c r="B10" s="162">
+      <c r="B10" s="147">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="148">
         <v>0.06</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="147">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E10" s="163">
+      <c r="E10" s="148">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F10" s="164">
+      <c r="F10" s="149">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G10" s="165">
+      <c r="G10" s="150">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H10" s="164">
+      <c r="H10" s="149">
         <v>0.03</v>
       </c>
-      <c r="I10" s="165">
+      <c r="I10" s="150">
         <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="157">
+      <c r="A11" s="142">
         <v>40</v>
       </c>
-      <c r="B11" s="162">
+      <c r="B11" s="147">
         <v>0.04</v>
       </c>
-      <c r="C11" s="163">
+      <c r="C11" s="148">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="147">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E11" s="163">
+      <c r="E11" s="148">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F11" s="164">
+      <c r="F11" s="149">
         <v>0.04</v>
       </c>
-      <c r="G11" s="165">
+      <c r="G11" s="150">
         <v>0.04</v>
       </c>
-      <c r="H11" s="164">
+      <c r="H11" s="149">
         <v>0.03</v>
       </c>
-      <c r="I11" s="165">
+      <c r="I11" s="150">
         <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="157">
+      <c r="A12" s="142">
         <v>45</v>
       </c>
-      <c r="B12" s="162">
+      <c r="B12" s="147">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C12" s="163">
+      <c r="C12" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="147">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E12" s="163">
+      <c r="E12" s="148">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F12" s="164">
+      <c r="F12" s="149">
         <v>0.04</v>
       </c>
-      <c r="G12" s="165">
+      <c r="G12" s="150">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H12" s="164">
+      <c r="H12" s="149">
         <v>0.04</v>
       </c>
-      <c r="I12" s="165">
+      <c r="I12" s="150">
         <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="157">
+      <c r="A13" s="142">
         <v>50</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="147">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C13" s="163">
+      <c r="C13" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="147">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E13" s="163">
+      <c r="E13" s="148">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F13" s="164">
+      <c r="F13" s="149">
         <v>0.04</v>
       </c>
-      <c r="G13" s="165">
+      <c r="G13" s="150">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H13" s="164">
+      <c r="H13" s="149">
         <v>0.04</v>
       </c>
-      <c r="I13" s="165">
+      <c r="I13" s="150">
         <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="157">
+      <c r="A14" s="142">
         <v>55</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="147">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C14" s="163">
+      <c r="C14" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="147">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="148">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F14" s="164">
+      <c r="F14" s="149">
         <v>0.04</v>
       </c>
-      <c r="G14" s="165">
+      <c r="G14" s="150">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H14" s="164">
+      <c r="H14" s="149">
         <v>0.04</v>
       </c>
-      <c r="I14" s="165">
+      <c r="I14" s="150">
         <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="157">
+      <c r="A15" s="142">
         <v>60</v>
       </c>
-      <c r="B15" s="162">
+      <c r="B15" s="147">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C15" s="163">
+      <c r="C15" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="147">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E15" s="163">
+      <c r="E15" s="148">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F15" s="164">
+      <c r="F15" s="149">
         <v>0.04</v>
       </c>
-      <c r="G15" s="165">
+      <c r="G15" s="150">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H15" s="164">
+      <c r="H15" s="149">
         <v>0.04</v>
       </c>
-      <c r="I15" s="165">
+      <c r="I15" s="150">
         <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
@@ -5366,7 +5363,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -5411,35 +5408,35 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="72"/>
+      <c r="B6" s="181" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="186"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="178"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
@@ -5449,13 +5446,13 @@
       <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="121"/>
+      <c r="B9" s="172" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5478,7 +5475,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5510,270 +5507,270 @@
         <v>47</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="167" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="167" t="s">
+      <c r="E6" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="F6" s="152" t="s">
         <v>199</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="G6" s="152" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="H6" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="H6" s="167" t="s">
+      <c r="I6" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="I6" s="167" t="s">
-        <v>203</v>
-      </c>
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="157">
+      <c r="A7" s="142">
         <v>25</v>
       </c>
-      <c r="B7" s="159">
+      <c r="B7" s="144">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="159">
+      <c r="C7" s="144">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D7" s="158">
+      <c r="D7" s="143">
         <v>1E-4</v>
       </c>
-      <c r="E7" s="159">
+      <c r="E7" s="144">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F7" s="158">
+      <c r="F7" s="143">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G7" s="159">
+      <c r="G7" s="144">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="159">
+      <c r="H7" s="144">
         <v>3.3E-3</v>
       </c>
-      <c r="I7" s="159">
+      <c r="I7" s="144">
         <v>3.3E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="157">
+      <c r="A8" s="142">
         <v>30</v>
       </c>
-      <c r="B8" s="163">
+      <c r="B8" s="148">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C8" s="163">
+      <c r="C8" s="148">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="147">
         <v>1E-4</v>
       </c>
-      <c r="E8" s="163">
+      <c r="E8" s="148">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F8" s="162">
+      <c r="F8" s="147">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G8" s="163">
+      <c r="G8" s="148">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H8" s="163">
+      <c r="H8" s="148">
         <v>4.3E-3</v>
       </c>
-      <c r="I8" s="163">
+      <c r="I8" s="148">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="157">
+      <c r="A9" s="142">
         <v>35</v>
       </c>
-      <c r="B9" s="163">
+      <c r="B9" s="148">
         <v>1E-3</v>
       </c>
-      <c r="C9" s="163">
+      <c r="C9" s="148">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="147">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E9" s="148">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="147">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="163">
+      <c r="G9" s="148">
         <v>1E-3</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="148">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="163">
+      <c r="I9" s="148">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="157">
+      <c r="A10" s="142">
         <v>40</v>
       </c>
-      <c r="B10" s="163">
+      <c r="B10" s="148">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="148">
         <v>1.8E-3</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="147">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E10" s="163">
+      <c r="E10" s="148">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="162">
+      <c r="F10" s="147">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="163">
+      <c r="G10" s="148">
         <v>1.8E-3</v>
       </c>
-      <c r="H10" s="163">
+      <c r="H10" s="148">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="I10" s="163">
+      <c r="I10" s="148">
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="157">
+      <c r="A11" s="142">
         <v>45</v>
       </c>
-      <c r="B11" s="163">
+      <c r="B11" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="163">
+      <c r="C11" s="148">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="147">
         <v>1.4E-3</v>
       </c>
-      <c r="E11" s="163">
+      <c r="E11" s="148">
         <v>1.8E-3</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="147">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G11" s="163">
+      <c r="G11" s="148">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="H11" s="163">
+      <c r="H11" s="148">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I11" s="163">
+      <c r="I11" s="148">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="157">
+      <c r="A12" s="142">
         <v>50</v>
       </c>
-      <c r="B12" s="163">
+      <c r="B12" s="148">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="C12" s="163">
+      <c r="C12" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="147">
         <v>2.3E-3</v>
       </c>
-      <c r="E12" s="163">
+      <c r="E12" s="148">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="F12" s="162">
+      <c r="F12" s="147">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G12" s="163">
+      <c r="G12" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="163">
+      <c r="H12" s="148">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="I12" s="163">
+      <c r="I12" s="148">
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="157">
+      <c r="A13" s="142">
         <v>55</v>
       </c>
-      <c r="B13" s="163">
+      <c r="B13" s="148">
         <v>1.44E-2</v>
       </c>
-      <c r="C13" s="163">
+      <c r="C13" s="148">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="147">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="E13" s="163">
+      <c r="E13" s="148">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="147">
         <v>1.44E-2</v>
       </c>
-      <c r="G13" s="163">
+      <c r="G13" s="148">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="H13" s="186">
+      <c r="H13" s="171">
         <v>0</v>
       </c>
-      <c r="I13" s="186">
+      <c r="I13" s="171">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="157">
+      <c r="A14" s="142">
         <v>60</v>
       </c>
-      <c r="B14" s="163">
+      <c r="B14" s="148">
         <v>2.4E-2</v>
       </c>
-      <c r="C14" s="163">
+      <c r="C14" s="148">
         <v>1.38E-2</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="147">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="148">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="F14" s="162">
+      <c r="F14" s="147">
         <v>2.4E-2</v>
       </c>
-      <c r="G14" s="163">
+      <c r="G14" s="148">
         <v>1.38E-2</v>
       </c>
-      <c r="H14" s="186">
+      <c r="H14" s="171">
         <v>0</v>
       </c>
-      <c r="I14" s="186">
+      <c r="I14" s="171">
         <v>0</v>
       </c>
     </row>
@@ -5818,27 +5815,27 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="68"/>
+      <c r="B4" s="178" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="178"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5858,7 +5855,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5878,7 +5875,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5886,325 +5883,325 @@
         <v>47</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="152" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="E5" s="152" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="F5" s="152" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="167" t="s">
+      <c r="G5" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="H5" s="152" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="167" t="s">
+      <c r="I5" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="167" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="157">
+      <c r="A6" s="142">
         <v>25</v>
       </c>
-      <c r="B6" s="159">
+      <c r="B6" s="144">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C6" s="159">
+      <c r="C6" s="144">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D6" s="159">
+      <c r="D6" s="144">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E6" s="159">
+      <c r="E6" s="144">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="168">
+      <c r="F6" s="153">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G6" s="169">
+      <c r="G6" s="154">
         <v>1E-4</v>
       </c>
-      <c r="H6" s="170">
+      <c r="H6" s="155">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I6" s="169">
+      <c r="I6" s="154">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="157">
+      <c r="A7" s="142">
         <v>30</v>
       </c>
-      <c r="B7" s="163">
+      <c r="B7" s="148">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="163">
+      <c r="C7" s="148">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D7" s="163">
+      <c r="D7" s="148">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E7" s="163">
+      <c r="E7" s="148">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="156">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G7" s="172">
+      <c r="G7" s="157">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="173">
+      <c r="H7" s="158">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I7" s="172">
+      <c r="I7" s="157">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="157">
+      <c r="A8" s="142">
         <v>35</v>
       </c>
-      <c r="B8" s="163">
+      <c r="B8" s="148">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C8" s="163">
+      <c r="C8" s="148">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D8" s="163">
+      <c r="D8" s="148">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E8" s="163">
+      <c r="E8" s="148">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="156">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G8" s="172">
+      <c r="G8" s="157">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H8" s="173">
+      <c r="H8" s="158">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I8" s="172">
+      <c r="I8" s="157">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="157">
+      <c r="A9" s="142">
         <v>40</v>
       </c>
-      <c r="B9" s="163">
+      <c r="B9" s="148">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C9" s="163">
+      <c r="C9" s="148">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D9" s="163">
+      <c r="D9" s="148">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E9" s="148">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="156">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G9" s="172">
+      <c r="G9" s="157">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H9" s="173">
+      <c r="H9" s="158">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I9" s="172">
+      <c r="I9" s="157">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="157">
+      <c r="A10" s="142">
         <v>45</v>
       </c>
-      <c r="B10" s="163">
+      <c r="B10" s="148">
         <v>1E-3</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="148">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D10" s="163">
+      <c r="D10" s="148">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E10" s="163">
+      <c r="E10" s="148">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F10" s="171">
+      <c r="F10" s="156">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G10" s="172">
+      <c r="G10" s="157">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H10" s="173">
+      <c r="H10" s="158">
         <v>1E-3</v>
       </c>
-      <c r="I10" s="172">
+      <c r="I10" s="157">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="157">
+      <c r="A11" s="142">
         <v>50</v>
       </c>
-      <c r="B11" s="163">
+      <c r="B11" s="148">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C11" s="163">
+      <c r="C11" s="148">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D11" s="163">
+      <c r="D11" s="148">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E11" s="163">
+      <c r="E11" s="148">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F11" s="171">
+      <c r="F11" s="156">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G11" s="172">
+      <c r="G11" s="157">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H11" s="173">
+      <c r="H11" s="158">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I11" s="172">
+      <c r="I11" s="157">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="157">
+      <c r="A12" s="142">
         <v>55</v>
       </c>
-      <c r="B12" s="163">
+      <c r="B12" s="148">
         <v>2.8E-3</v>
       </c>
-      <c r="C12" s="163">
+      <c r="C12" s="148">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D12" s="163">
+      <c r="D12" s="148">
         <v>2E-3</v>
       </c>
-      <c r="E12" s="163">
+      <c r="E12" s="148">
         <v>1.4E-3</v>
       </c>
-      <c r="F12" s="171">
+      <c r="F12" s="156">
         <v>2E-3</v>
       </c>
-      <c r="G12" s="172">
+      <c r="G12" s="157">
         <v>1.4E-3</v>
       </c>
-      <c r="H12" s="173">
+      <c r="H12" s="158">
         <v>2.8E-3</v>
       </c>
-      <c r="I12" s="172">
+      <c r="I12" s="157">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="157">
+      <c r="A13" s="142">
         <v>60</v>
       </c>
-      <c r="B13" s="163">
+      <c r="B13" s="148">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="C13" s="163">
+      <c r="C13" s="148">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D13" s="163">
+      <c r="D13" s="148">
         <v>3.3E-3</v>
       </c>
-      <c r="E13" s="163">
+      <c r="E13" s="148">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F13" s="171">
+      <c r="F13" s="156">
         <v>3.3E-3</v>
       </c>
-      <c r="G13" s="172">
+      <c r="G13" s="157">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="H13" s="173">
+      <c r="H13" s="158">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I13" s="172">
+      <c r="I13" s="157">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="157">
+      <c r="A14" s="142">
         <v>65</v>
       </c>
-      <c r="B14" s="163">
+      <c r="B14" s="148">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="C14" s="163">
+      <c r="C14" s="148">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D14" s="163">
+      <c r="D14" s="148">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="E14" s="163">
+      <c r="E14" s="148">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="F14" s="171">
+      <c r="F14" s="156">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="172">
+      <c r="G14" s="157">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="H14" s="173">
+      <c r="H14" s="158">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="I14" s="172">
+      <c r="I14" s="157">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="157">
+      <c r="A15" s="142">
         <v>69</v>
       </c>
-      <c r="B15" s="163">
+      <c r="B15" s="148">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C15" s="163">
+      <c r="C15" s="148">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="D15" s="163">
+      <c r="D15" s="148">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="E15" s="163">
+      <c r="E15" s="148">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F15" s="171">
+      <c r="F15" s="156">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G15" s="172">
+      <c r="G15" s="157">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="H15" s="173">
+      <c r="H15" s="158">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="I15" s="172">
+      <c r="I15" s="157">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
@@ -6245,7 +6242,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6253,7 +6250,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -6261,7 +6258,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>53</v>
@@ -6285,21 +6282,21 @@
         <v>56</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N6" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="41" t="s">
         <v>128</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="32">
         <v>0</v>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="32">
         <v>0</v>
@@ -6381,7 +6378,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="32">
         <v>0</v>
@@ -6455,7 +6452,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6463,339 +6460,339 @@
         <v>47</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="152" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="D5" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="E5" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="F5" s="152" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="167" t="s">
+      <c r="G5" s="152" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="H5" s="152" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="167" t="s">
+      <c r="I5" s="152" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="167" t="s">
+      <c r="J5" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="159" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="159" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" s="159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="142">
+        <v>55</v>
+      </c>
+      <c r="B6" s="165">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C6" s="166">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D6" s="167">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E6" s="168" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="174" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="174" t="s">
-        <v>224</v>
-      </c>
-      <c r="L5" s="174" t="s">
-        <v>225</v>
-      </c>
-      <c r="M5" s="174" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="157">
-        <v>55</v>
-      </c>
-      <c r="B6" s="180">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="C6" s="181">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="D6" s="182">
+      <c r="F6" s="167">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E6" s="183" t="s">
+      <c r="G6" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="168" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="182">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="G6" s="183" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="183" t="s">
+      <c r="I6" s="168" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" s="159">
+      <c r="J6" s="144">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="K6" s="159">
+      <c r="K6" s="144">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L6" s="159">
+      <c r="L6" s="144">
         <v>2.41E-2</v>
       </c>
-      <c r="M6" s="169">
+      <c r="M6" s="154">
         <v>1.43E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157">
+      <c r="A7" s="142">
         <v>60</v>
       </c>
-      <c r="B7" s="184">
+      <c r="B7" s="169">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="C7" s="185">
+      <c r="C7" s="170">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D7" s="186">
+      <c r="D7" s="171">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E7" s="163">
+      <c r="E7" s="148">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="186">
+      <c r="F7" s="171">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G7" s="163">
+      <c r="G7" s="148">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="163">
+      <c r="H7" s="148">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="I7" s="163">
+      <c r="I7" s="148">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J7" s="163">
+      <c r="J7" s="148">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="K7" s="163">
+      <c r="K7" s="148">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="L7" s="163">
+      <c r="L7" s="148">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="M7" s="172">
+      <c r="M7" s="157">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157">
+      <c r="A8" s="142">
         <v>65</v>
       </c>
-      <c r="B8" s="184">
+      <c r="B8" s="169">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="170">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="D8" s="186">
+      <c r="D8" s="171">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="163">
+      <c r="E8" s="148">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="F8" s="186">
+      <c r="F8" s="171">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="163">
+      <c r="G8" s="148">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="H8" s="163">
+      <c r="H8" s="148">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I8" s="163">
+      <c r="I8" s="148">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J8" s="163">
+      <c r="J8" s="148">
         <v>1.35E-2</v>
       </c>
-      <c r="K8" s="163">
+      <c r="K8" s="148">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="L8" s="163">
+      <c r="L8" s="148">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="M8" s="172">
+      <c r="M8" s="157">
         <v>2.07E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157">
+      <c r="A9" s="142">
         <v>70</v>
       </c>
-      <c r="B9" s="184">
+      <c r="B9" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="170">
         <v>1.04E-2</v>
       </c>
-      <c r="D9" s="186">
+      <c r="D9" s="171">
         <v>1.14E-2</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E9" s="148">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="F9" s="186">
+      <c r="F9" s="171">
         <v>1.14E-2</v>
       </c>
-      <c r="G9" s="163">
+      <c r="G9" s="148">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="148">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="I9" s="163">
+      <c r="I9" s="148">
         <v>1.29E-2</v>
       </c>
-      <c r="J9" s="163">
+      <c r="J9" s="148">
         <v>2.06E-2</v>
       </c>
-      <c r="K9" s="163">
+      <c r="K9" s="148">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="L9" s="163">
+      <c r="L9" s="148">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="M9" s="172">
+      <c r="M9" s="157">
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="157">
+      <c r="A10" s="142">
         <v>75</v>
       </c>
-      <c r="B10" s="184">
+      <c r="B10" s="169">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="170">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D10" s="186">
+      <c r="D10" s="171">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="E10" s="163">
+      <c r="E10" s="148">
         <v>1.37E-2</v>
       </c>
-      <c r="F10" s="186">
+      <c r="F10" s="171">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="G10" s="163">
+      <c r="G10" s="148">
         <v>1.37E-2</v>
       </c>
-      <c r="H10" s="163">
+      <c r="H10" s="148">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="I10" s="163">
+      <c r="I10" s="148">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="J10" s="163">
+      <c r="J10" s="148">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K10" s="163">
+      <c r="K10" s="148">
         <v>2.58E-2</v>
       </c>
-      <c r="L10" s="163">
+      <c r="L10" s="148">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="M10" s="172">
+      <c r="M10" s="157">
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="157">
+      <c r="A11" s="142">
         <v>80</v>
       </c>
-      <c r="B11" s="184">
+      <c r="B11" s="169">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="C11" s="185">
+      <c r="C11" s="170">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="D11" s="186">
+      <c r="D11" s="171">
         <v>4.48E-2</v>
       </c>
-      <c r="E11" s="163">
+      <c r="E11" s="148">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="F11" s="186">
+      <c r="F11" s="171">
         <v>4.48E-2</v>
       </c>
-      <c r="G11" s="163">
+      <c r="G11" s="148">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="H11" s="163">
+      <c r="H11" s="148">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="I11" s="163">
+      <c r="I11" s="148">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J11" s="163">
+      <c r="J11" s="148">
         <v>5.5E-2</v>
       </c>
-      <c r="K11" s="163">
+      <c r="K11" s="148">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="L11" s="163">
+      <c r="L11" s="148">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="M11" s="172">
+      <c r="M11" s="157">
         <v>6.0400000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="177"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="162"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="177"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="162"/>
     </row>
     <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="175"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="177"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="162"/>
     </row>
     <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="177"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="162"/>
     </row>
     <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7271,12 +7268,12 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N5">
         <v>30335</v>
@@ -7371,7 +7368,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>65366</v>
@@ -7534,7 +7531,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -7542,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -7551,13 +7548,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="26"/>
     </row>
@@ -7578,11 +7575,11 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="73">
+      <c r="B19" s="64">
         <f>B17/B18</f>
         <v>5.9999999998153128E-2</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="64">
         <f>C17/C18</f>
         <v>6.0000000000174865E-2</v>
       </c>
@@ -7621,7 +7618,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7642,17 +7639,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="74">
+        <v>137</v>
+      </c>
+      <c r="B6" s="65">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="74">
+        <v>138</v>
+      </c>
+      <c r="B7" s="65">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -7661,7 +7658,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7694,7 +7691,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7724,227 +7721,227 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="D5" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="E5" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="75" t="s">
+    </row>
+    <row r="6" spans="1:5" s="61" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="61" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="B6" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="C6" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="D6" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="E6" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="83" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="70">
         <v>0</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="71">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="72">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="71">
         <v>5.5E-2</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="71">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+      <c r="A8" s="70">
         <v>5</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="71">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="71">
         <v>6.25E-2</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="71">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="71">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="70">
         <v>10</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="71">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="71">
         <v>5.5E-2</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="71">
         <v>0.04</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="71">
         <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+      <c r="A10" s="70">
         <v>15</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="71">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="71">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="71">
         <v>3.95E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="80">
+      <c r="A11" s="70">
         <v>20</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="71">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="71">
         <v>0.04</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="71">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="80">
+      <c r="A12" s="70">
         <v>25</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+      <c r="A13" s="70">
         <v>30</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="80">
+      <c r="A14" s="70">
         <v>35</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="80">
+      <c r="A15" s="70">
         <v>40</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="80">
+      <c r="A16" s="70">
         <v>45</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="80">
+      <c r="A17" s="70">
         <v>50</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="71">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -7962,7 +7959,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7998,7 +7995,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="43"/>
     </row>
@@ -8017,25 +8014,25 @@
       <c r="A6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="88" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8067,301 +8064,301 @@
       <c r="I7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="99"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="116">
+        <v>122</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="106">
         <v>40178</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="103">
         <v>2360173025</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="104">
         <v>12</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="103">
         <v>1884062115</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="105">
         <v>6</v>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="103">
         <v>322948963</v>
       </c>
-      <c r="I8" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="99"/>
+      <c r="I8" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="116">
+        <v>122</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="106">
         <v>40543</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="103">
         <v>242581914</v>
       </c>
-      <c r="E9" s="114">
+      <c r="E9" s="104">
         <v>12</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="103">
         <v>212607844</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="105">
         <v>7</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="103">
         <v>33193150</v>
       </c>
-      <c r="I9" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="99"/>
+      <c r="I9" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="116">
+        <v>122</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="106">
         <v>40908</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="103">
         <v>911037989</v>
       </c>
-      <c r="E10" s="114">
+      <c r="E10" s="104">
         <v>12</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="103">
         <v>864864695</v>
       </c>
-      <c r="G10" s="115">
+      <c r="G10" s="105">
         <v>8</v>
       </c>
-      <c r="H10" s="113">
+      <c r="H10" s="103">
         <v>124659832</v>
       </c>
-      <c r="I10" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="99"/>
+      <c r="I10" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="116">
+        <v>122</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="106">
         <v>41274</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="103">
         <v>78277759</v>
       </c>
-      <c r="E11" s="114">
+      <c r="E11" s="104">
         <v>12</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="103">
         <v>79629762</v>
       </c>
-      <c r="G11" s="115">
+      <c r="G11" s="105">
         <v>9</v>
       </c>
-      <c r="H11" s="113">
+      <c r="H11" s="103">
         <v>10710961</v>
       </c>
-      <c r="I11" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="99"/>
+      <c r="I11" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="116">
+        <v>122</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="106">
         <v>41639</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="103">
         <v>-114027863</v>
       </c>
-      <c r="E12" s="114">
+      <c r="E12" s="104">
         <v>12</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="103">
         <v>-123222179</v>
       </c>
-      <c r="G12" s="115">
+      <c r="G12" s="105">
         <v>10</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="103">
         <v>-15602746</v>
       </c>
-      <c r="I12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="99"/>
+      <c r="I12" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="116">
+        <v>122</v>
+      </c>
+      <c r="B13" s="97"/>
+      <c r="C13" s="106">
         <v>42004</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="103">
         <v>-206952282</v>
       </c>
-      <c r="E13" s="114">
+      <c r="E13" s="104">
         <v>12</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="103">
         <v>-221956322</v>
       </c>
-      <c r="G13" s="115">
+      <c r="G13" s="105">
         <v>11</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="103">
         <v>-28317850</v>
       </c>
-      <c r="I13" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="99"/>
+      <c r="I13" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="89"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="116">
+        <v>122</v>
+      </c>
+      <c r="B14" s="97"/>
+      <c r="C14" s="106">
         <v>42369</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="103">
         <v>2586581023</v>
       </c>
-      <c r="E14" s="114">
+      <c r="E14" s="104">
         <v>12</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="103">
         <v>2586581023</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="105">
         <v>12</v>
       </c>
-      <c r="H14" s="113">
+      <c r="H14" s="103">
         <v>353928991</v>
       </c>
-      <c r="I14" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="99"/>
+      <c r="I14" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="99"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="101"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="101"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L22" s="84"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="87"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="77"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L23" s="88"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L24" s="88"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L25" s="88"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L26" s="88"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="91"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="81"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L27" s="88"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L28" s="88"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L29" s="88"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8377,8 +8374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8409,7 +8406,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="5" activeTab="8"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -3162,8 +3162,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,8 +3385,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4686,7 +4686,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,7 +5475,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7440,10 +7440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7456,6 +7456,12 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f>66169352203/71521915397</f>
+        <v>0.92516191485799448</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
@@ -7490,7 +7496,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7600,7 +7606,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8374,8 +8380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="236">
   <si>
     <t>Notes</t>
   </si>
@@ -820,9 +820,6 @@
     <t>do not modeling return of contribution for now</t>
   </si>
   <si>
-    <t>do not model survivor's alternate benefit for now</t>
-  </si>
-  <si>
     <t xml:space="preserve">Disability benefit is paid by a separate plan;
 NC TSERS Disability retirement benefits for those who have yos &gt;= 5 by 1988. </t>
   </si>
@@ -922,30 +919,6 @@
     </r>
   </si>
   <si>
-    <t>qxt.male.gen</t>
-  </si>
-  <si>
-    <t>qxt.female.gen</t>
-  </si>
-  <si>
-    <t>qxt.male.tch</t>
-  </si>
-  <si>
-    <t>qxt.female.tch</t>
-  </si>
-  <si>
-    <t>qxt.male.law</t>
-  </si>
-  <si>
-    <t>qxt.female.law</t>
-  </si>
-  <si>
-    <t>qxt.male.edu</t>
-  </si>
-  <si>
-    <t>qxt.female.edu</t>
-  </si>
-  <si>
     <t>I12</t>
   </si>
   <si>
@@ -1067,6 +1040,57 @@
   </si>
   <si>
     <t>C10</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>qxt.male.gen.yos</t>
+  </si>
+  <si>
+    <t>qxt.female.gen.yos</t>
+  </si>
+  <si>
+    <t>qxt.male.tch.yos</t>
+  </si>
+  <si>
+    <t>qxt.female.tch.yos</t>
+  </si>
+  <si>
+    <t>qxt.male.law.yos</t>
+  </si>
+  <si>
+    <t>qxt.female.law.yos</t>
+  </si>
+  <si>
+    <t>qxt.male.edu.yos</t>
+  </si>
+  <si>
+    <t>qxt.female.edu.yos</t>
+  </si>
+  <si>
+    <t>qxt.male.gen.age</t>
+  </si>
+  <si>
+    <t>qxt.female.gen.age</t>
+  </si>
+  <si>
+    <t>qxt.male.tch.age</t>
+  </si>
+  <si>
+    <t>qxt.female.tch.age</t>
+  </si>
+  <si>
+    <t>qxt.male.edu.age</t>
+  </si>
+  <si>
+    <t>qxt.female.edu.age</t>
+  </si>
+  <si>
+    <t>qxt.male.law.age</t>
+  </si>
+  <si>
+    <t>qxt.female.law.age</t>
   </si>
 </sst>
 </file>
@@ -3266,7 +3290,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="172" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C9" s="172"/>
       <c r="D9" s="172"/>
@@ -3410,7 +3434,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3418,7 +3442,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3429,25 +3453,25 @@
         <v>49</v>
       </c>
       <c r="C5" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="E5" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="F5" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="G5" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="H5" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="I5" s="111" t="s">
         <v>178</v>
-      </c>
-      <c r="I5" s="111" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4783,7 +4807,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,7 +4837,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4833,33 +4857,33 @@
       </c>
       <c r="G5" s="183"/>
       <c r="H5" s="183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" s="183"/>
     </row>
     <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="182"/>
       <c r="B6" s="184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="184"/>
       <c r="D6" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="127" t="s">
-        <v>185</v>
-      </c>
       <c r="F6" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="127" t="s">
-        <v>185</v>
-      </c>
       <c r="H6" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="129" t="s">
         <v>184</v>
-      </c>
-      <c r="I6" s="129" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,28 +4891,28 @@
         <v>144</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C7" s="139" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D7" s="139" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E7" s="139" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="G7" s="139" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H7" s="139" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="I7" s="139" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,28 +5119,28 @@
         <v>49</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D7" s="141" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="F7" s="141" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="G7" s="141" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="H7" s="141" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="I7" s="141" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5427,7 +5451,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="186"/>
     </row>
@@ -5450,7 +5474,7 @@
         <v>114</v>
       </c>
       <c r="B9" s="172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="172"/>
     </row>
@@ -5517,28 +5541,28 @@
         <v>49</v>
       </c>
       <c r="B6" s="152" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C6" s="152" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D6" s="152" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E6" s="152" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F6" s="152" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G6" s="152" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H6" s="152" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I6" s="152" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J6" s="61"/>
     </row>
@@ -5826,7 +5850,7 @@
         <v>109</v>
       </c>
       <c r="B4" s="178" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="178"/>
     </row>
@@ -5875,7 +5899,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5891,28 +5915,28 @@
         <v>49</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D5" s="152" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E5" s="152" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F5" s="152" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G5" s="152" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H5" s="152" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I5" s="152" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6452,7 +6476,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6460,7 +6484,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -6468,40 +6492,40 @@
         <v>49</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C5" s="152" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D5" s="152" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="152" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="159" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="K5" s="159" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="L5" s="159" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="M5" s="159" t="s">
         <v>216</v>
-      </c>
-      <c r="H5" s="152" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="152" t="s">
-        <v>218</v>
-      </c>
-      <c r="J5" s="159" t="s">
-        <v>222</v>
-      </c>
-      <c r="K5" s="159" t="s">
-        <v>223</v>
-      </c>
-      <c r="L5" s="159" t="s">
-        <v>224</v>
-      </c>
-      <c r="M5" s="159" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -6518,19 +6542,19 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="E6" s="168" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F6" s="167">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G6" s="168" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H6" s="168" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I6" s="168" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J6" s="144">
         <v>7.1000000000000004E-3</v>
@@ -7442,7 +7466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -8412,7 +8436,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1800,6 +1800,9 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3186,8 +3189,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,14 +3212,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="174" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="175"/>
+      <c r="E3" s="176"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -3237,7 +3240,7 @@
       <c r="A5" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="172" t="s">
         <v>157</v>
       </c>
       <c r="C5" s="63" t="s">
@@ -3254,14 +3257,14 @@
       <c r="A6" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="179" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3269,12 +3272,12 @@
       <c r="A7" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="176">
+      <c r="B7" s="177">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
@@ -3289,12 +3292,12 @@
       <c r="A9" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -3410,7 +3413,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4710,7 +4713,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,10 +4736,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="174"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -4751,10 +4754,10 @@
       <c r="A6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="182"/>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -4771,19 +4774,19 @@
       <c r="A8" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="180"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="181" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="180"/>
+      <c r="C9" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4841,32 +4844,32 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183" t="s">
+      <c r="C5" s="184"/>
+      <c r="D5" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183" t="s">
+      <c r="E5" s="184"/>
+      <c r="F5" s="184" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183" t="s">
+      <c r="G5" s="184"/>
+      <c r="H5" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="183"/>
+      <c r="I5" s="184"/>
     </row>
     <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="182"/>
-      <c r="B6" s="184" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="184"/>
+      <c r="C6" s="185"/>
       <c r="D6" s="127" t="s">
         <v>183</v>
       </c>
@@ -5080,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,10 +5435,10 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="174"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -5450,17 +5453,17 @@
       <c r="A6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="187"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="178"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="179"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
@@ -5473,10 +5476,10 @@
       <c r="A9" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="172"/>
+      <c r="C9" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5849,17 +5852,17 @@
       <c r="A4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="179" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="179"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="178"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="225">
   <si>
     <t>Notes</t>
   </si>
@@ -414,18 +414,6 @@
     <t>GenFund.original</t>
   </si>
   <si>
-    <t>Growth.high</t>
-  </si>
-  <si>
-    <t>Grwoth.med</t>
-  </si>
-  <si>
-    <t>Growth.low</t>
-  </si>
-  <si>
-    <t>GenFund.high</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
@@ -507,27 +495,9 @@
     <t>Modeling notes</t>
   </si>
   <si>
-    <t>90% are assumed to commence payment immediately and 10% are assumed to defer payment to superannuatin age</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
-    <t>cola</t>
-  </si>
-  <si>
-    <t>tCD</t>
-  </si>
-  <si>
-    <t>tE</t>
-  </si>
-  <si>
-    <t>tF</t>
-  </si>
-  <si>
-    <t>EEC_rate</t>
-  </si>
-  <si>
     <t>sumTier</t>
   </si>
   <si>
@@ -541,18 +511,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>ScnDC_EEC_DB.rate</t>
-  </si>
-  <si>
-    <t>ScnDC_EEC_DC.rate</t>
-  </si>
-  <si>
-    <t>ScnDC_bf.reduction</t>
-  </si>
-  <si>
-    <t>O9</t>
   </si>
   <si>
     <t>Source: AV 2015 pdf page 84</t>
@@ -796,21 +754,11 @@
   <si>
     <t>1. regular benefit reduced by 0.25% for each month (3% for each year in the model)by which the member's age ate retirement is less than age 65.
 2. regular benefit reduced by the lesser of:
- (i) 5% each year for age less than 60, plus 3% each year for age less than 65; 
- (ii) 5%  x (30 - yos)</t>
-  </si>
-  <si>
-    <t>1. regular benefit reduced by 0.25% for each month (3% for each year in the model)by which the member's age ate retirement is less than age 65.
-2. regular benefit reduced by the lesser of:
  (i) 4% each year for age less than 55;
  (ii) 5%  x (30 - yos)</t>
   </si>
   <si>
     <t>yos &gt;= 5; prior to becoming eligible for an unreduced or reduced retirement benefit</t>
-  </si>
-  <si>
-    <t>- yos &lt; 20, reduced benefit bginning at 60;
-- yos &gt;=20, reduced benefit beginning at 50</t>
   </si>
   <si>
     <t>- yos &lt; 20, reduced benefit bginning at 55;
@@ -1092,6 +1040,25 @@
   <si>
     <t>qxt.female.law.age</t>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>1. regular benefit reduced by 0.25% for each month (3% for each year in the model)by which the member's age at retirement is less than age 65.
+2. regular benefit reduced by the lesser of:
+ (i) 5% each year for age less than 60, plus 3% each year for age less than 65; 
+ (ii) 5%  x (30 - yos)</t>
+  </si>
+  <si>
+    <t>- yos &lt; 20, reduced benefit beginning at 60;
+- yos &gt;=20, reduced benefit beginning at 50</t>
+  </si>
+  <si>
+    <t>Historical Growth</t>
+  </si>
 </sst>
 </file>
 
@@ -1105,7 +1072,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,13 +1106,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1329,12 +1289,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,12 +1359,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1424,15 +1383,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1454,27 +1411,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1493,73 +1450,73 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1567,10 +1524,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1583,20 +1540,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,7 +1562,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1614,13 +1571,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1629,25 +1586,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1656,155 +1613,158 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1828,19 +1788,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1850,10 +1810,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1906,6 +1865,55 @@
         <a:xfrm>
           <a:off x="457200" y="762000"/>
           <a:ext cx="5295238" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>418355</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7142FEE-1D09-49BA-A788-BF1E9D0882FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="647700"/>
+          <a:ext cx="5961905" cy="8704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2586,23 +2594,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>418355</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>17962</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>589676</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7142FEE-1D09-49BA-A788-BF1E9D0882FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51498504-517A-497B-A68F-4D1BEB479A3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,8 +2626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="647700"/>
-          <a:ext cx="5961905" cy="8704762"/>
+          <a:off x="7829550" y="628650"/>
+          <a:ext cx="6990476" cy="9676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2956,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3012,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3060,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3068,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3097,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>41</v>
@@ -3097,42 +3105,42 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3189,8 +3197,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,96 +3216,96 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="174" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="176"/>
+      <c r="B3" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="175"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>156</v>
+      <c r="B4" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="108" t="s">
-        <v>162</v>
+      <c r="A5" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="179" t="s">
-        <v>164</v>
+      <c r="A6" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="177" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="178" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="177">
+      <c r="A7" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="176">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="A8" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="173" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
+        <v>104</v>
+      </c>
+      <c r="B9" s="172" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -3420,7 +3428,7 @@
   <cols>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="18" style="114" customWidth="1"/>
+    <col min="5" max="6" width="18" style="112" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="56.28515625" customWidth="1"/>
@@ -3437,7 +3445,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3445,1256 +3453,1256 @@
         <v>47</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="111" t="s">
+      <c r="A5" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="115" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" s="111" t="s">
-        <v>178</v>
+      <c r="C5" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="112">
+      <c r="A6" s="110">
         <v>5</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="110">
         <v>50</v>
       </c>
-      <c r="C6" s="121">
+      <c r="C6" s="119">
         <v>0</v>
       </c>
-      <c r="D6" s="121">
+      <c r="D6" s="119">
         <v>0</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="119">
         <v>0</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="119">
         <v>0</v>
       </c>
-      <c r="G6" s="121">
+      <c r="G6" s="119">
         <v>0</v>
       </c>
-      <c r="H6" s="121">
+      <c r="H6" s="119">
         <v>0</v>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="119">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="112">
+      <c r="A7" s="110">
         <v>5</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="110">
         <v>55</v>
       </c>
-      <c r="C7" s="121">
+      <c r="C7" s="119">
         <v>0</v>
       </c>
-      <c r="D7" s="121">
+      <c r="D7" s="119">
         <v>0</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="119">
         <v>0</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="119">
         <v>0</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="119">
         <v>0</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="119">
         <v>0</v>
       </c>
-      <c r="I7" s="118">
+      <c r="I7" s="116">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="112">
+      <c r="A8" s="110">
         <v>5</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="110">
         <v>60</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="116">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="116">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="114">
         <v>0.12</v>
       </c>
-      <c r="F8" s="118">
+      <c r="F8" s="116">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="116">
         <v>0.09</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="116">
         <v>0.11</v>
       </c>
-      <c r="I8" s="118">
+      <c r="I8" s="116">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="112">
+      <c r="A9" s="110">
         <v>5</v>
       </c>
-      <c r="B9" s="112">
+      <c r="B9" s="110">
         <v>65</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="116">
         <v>0.25</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="116">
         <v>0.4</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="114">
         <v>0.3</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="116">
         <v>0.35</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H9" s="118">
+      <c r="H9" s="116">
         <v>0.25</v>
       </c>
-      <c r="I9" s="118">
+      <c r="I9" s="116">
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="112">
+      <c r="A10" s="110">
         <v>5</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="110">
         <v>70</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="116">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10" s="116">
         <v>0.2</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="114">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="116">
         <v>0.3</v>
       </c>
-      <c r="G10" s="118">
+      <c r="G10" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="116">
         <v>0.25</v>
       </c>
-      <c r="I10" s="118">
+      <c r="I10" s="116">
         <v>0.3</v>
       </c>
-      <c r="M10" s="110"/>
+      <c r="M10" s="108"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="112">
+      <c r="A11" s="110">
         <v>5</v>
       </c>
-      <c r="B11" s="112">
+      <c r="B11" s="110">
         <v>75</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="116">
         <v>1</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="116">
         <v>1</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="114">
         <v>1</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="117">
         <v>1</v>
       </c>
-      <c r="G11" s="119">
+      <c r="G11" s="117">
         <v>1</v>
       </c>
-      <c r="H11" s="118">
+      <c r="H11" s="116">
         <v>1</v>
       </c>
-      <c r="I11" s="118">
+      <c r="I11" s="116">
         <v>1</v>
       </c>
-      <c r="M11" s="110"/>
+      <c r="M11" s="108"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="113">
+      <c r="A12" s="111">
         <v>10</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="111">
         <v>50</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="120">
         <v>0</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="120">
         <v>0</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="120">
         <v>0</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="120">
         <v>0</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="120">
         <v>0</v>
       </c>
-      <c r="H12" s="122">
+      <c r="H12" s="120">
         <v>0</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="120">
         <v>0</v>
       </c>
-      <c r="M12" s="110"/>
+      <c r="M12" s="108"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="113">
+      <c r="A13" s="111">
         <v>10</v>
       </c>
-      <c r="B13" s="113">
+      <c r="B13" s="111">
         <v>55</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="120">
         <v>0</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="120">
         <v>0</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="120">
         <v>0</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="120">
         <v>0</v>
       </c>
-      <c r="G13" s="122">
+      <c r="G13" s="120">
         <v>0</v>
       </c>
-      <c r="H13" s="122">
+      <c r="H13" s="120">
         <v>0</v>
       </c>
-      <c r="I13" s="123">
+      <c r="I13" s="121">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="113">
+      <c r="A14" s="111">
         <v>10</v>
       </c>
-      <c r="B14" s="113">
+      <c r="B14" s="111">
         <v>60</v>
       </c>
-      <c r="C14" s="123">
+      <c r="C14" s="121">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="121">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E14" s="124">
+      <c r="E14" s="122">
         <v>0.12</v>
       </c>
-      <c r="F14" s="123">
+      <c r="F14" s="121">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G14" s="123">
+      <c r="G14" s="121">
         <v>0.09</v>
       </c>
-      <c r="H14" s="123">
+      <c r="H14" s="121">
         <v>0.11</v>
       </c>
-      <c r="I14" s="123">
+      <c r="I14" s="121">
         <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="113">
+      <c r="A15" s="111">
         <v>10</v>
       </c>
-      <c r="B15" s="113">
+      <c r="B15" s="111">
         <v>65</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="121">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="121">
         <v>0.3</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="115">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="121">
         <v>0.375</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G15" s="121">
         <v>0.3</v>
       </c>
-      <c r="H15" s="123">
+      <c r="H15" s="121">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="121">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="113">
+      <c r="A16" s="111">
         <v>10</v>
       </c>
-      <c r="B16" s="113">
+      <c r="B16" s="111">
         <v>70</v>
       </c>
-      <c r="C16" s="123">
+      <c r="C16" s="121">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="121">
         <v>0.2</v>
       </c>
-      <c r="E16" s="117">
+      <c r="E16" s="115">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F16" s="123">
+      <c r="F16" s="121">
         <v>0.3</v>
       </c>
-      <c r="G16" s="123">
+      <c r="G16" s="121">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H16" s="123">
+      <c r="H16" s="121">
         <v>0.25</v>
       </c>
-      <c r="I16" s="123">
+      <c r="I16" s="121">
         <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="113">
+      <c r="A17" s="111">
         <v>10</v>
       </c>
-      <c r="B17" s="113">
+      <c r="B17" s="111">
         <v>75</v>
       </c>
-      <c r="C17" s="123">
+      <c r="C17" s="121">
         <v>1</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="121">
         <v>1</v>
       </c>
-      <c r="E17" s="117">
+      <c r="E17" s="115">
         <v>1</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="123">
         <v>1</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="123">
         <v>1</v>
       </c>
-      <c r="H17" s="123">
+      <c r="H17" s="121">
         <v>1</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="121">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="112">
+      <c r="A18" s="110">
         <v>15</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="110">
         <v>50</v>
       </c>
-      <c r="C18" s="121">
+      <c r="C18" s="119">
         <v>0</v>
       </c>
-      <c r="D18" s="121">
+      <c r="D18" s="119">
         <v>0</v>
       </c>
-      <c r="E18" s="121">
+      <c r="E18" s="119">
         <v>0</v>
       </c>
-      <c r="F18" s="121">
+      <c r="F18" s="119">
         <v>0</v>
       </c>
-      <c r="G18" s="121">
+      <c r="G18" s="119">
         <v>0</v>
       </c>
-      <c r="H18" s="121">
+      <c r="H18" s="119">
         <v>0</v>
       </c>
-      <c r="I18" s="118">
+      <c r="I18" s="116">
         <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="112">
+      <c r="A19" s="110">
         <v>15</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="110">
         <v>55</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C19" s="119">
         <v>0</v>
       </c>
-      <c r="D19" s="121">
+      <c r="D19" s="119">
         <v>0</v>
       </c>
-      <c r="E19" s="121">
+      <c r="E19" s="119">
         <v>0</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F19" s="119">
         <v>0</v>
       </c>
-      <c r="G19" s="121">
+      <c r="G19" s="119">
         <v>0</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="119">
         <v>0</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="116">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="112">
+      <c r="A20" s="110">
         <v>15</v>
       </c>
-      <c r="B20" s="112">
+      <c r="B20" s="110">
         <v>60</v>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="116">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D20" s="118">
+      <c r="D20" s="116">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E20" s="116">
+      <c r="E20" s="114">
         <v>0.12</v>
       </c>
-      <c r="F20" s="116">
+      <c r="F20" s="114">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G20" s="112">
+      <c r="G20" s="110">
         <v>0.09</v>
       </c>
-      <c r="H20" s="112">
+      <c r="H20" s="110">
         <v>0.11</v>
       </c>
-      <c r="I20" s="118">
+      <c r="I20" s="116">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="112">
+      <c r="A21" s="110">
         <v>15</v>
       </c>
-      <c r="B21" s="112">
+      <c r="B21" s="110">
         <v>65</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D21" s="118">
+      <c r="D21" s="116">
         <v>0.3</v>
       </c>
-      <c r="E21" s="116">
+      <c r="E21" s="114">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F21" s="116">
+      <c r="F21" s="114">
         <v>0.375</v>
       </c>
-      <c r="G21" s="112">
+      <c r="G21" s="110">
         <v>0.3</v>
       </c>
-      <c r="H21" s="112">
+      <c r="H21" s="110">
         <v>0.27</v>
       </c>
-      <c r="I21" s="118">
+      <c r="I21" s="116">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="112">
+      <c r="A22" s="110">
         <v>15</v>
       </c>
-      <c r="B22" s="112">
+      <c r="B22" s="110">
         <v>70</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D22" s="118">
+      <c r="D22" s="116">
         <v>0.2</v>
       </c>
-      <c r="E22" s="116">
+      <c r="E22" s="114">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F22" s="116">
+      <c r="F22" s="114">
         <v>0.3</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="110">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H22" s="112">
+      <c r="H22" s="110">
         <v>0.25</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="116">
         <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="112">
+      <c r="A23" s="110">
         <v>15</v>
       </c>
-      <c r="B23" s="112">
+      <c r="B23" s="110">
         <v>75</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="116">
         <v>1</v>
       </c>
-      <c r="D23" s="118">
+      <c r="D23" s="116">
         <v>1</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="114">
         <v>1</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="114">
         <v>1</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="110">
         <v>1</v>
       </c>
-      <c r="H23" s="112">
+      <c r="H23" s="110">
         <v>1</v>
       </c>
-      <c r="I23" s="118">
+      <c r="I23" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="113">
+      <c r="A24" s="111">
         <v>20</v>
       </c>
-      <c r="B24" s="113">
+      <c r="B24" s="111">
         <v>50</v>
       </c>
-      <c r="C24" s="123">
+      <c r="C24" s="121">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="121">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E24" s="117">
+      <c r="E24" s="115">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="121">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G24" s="113">
+      <c r="G24" s="111">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H24" s="111">
         <v>0.04</v>
       </c>
-      <c r="I24" s="123">
+      <c r="I24" s="121">
         <v>0.09</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="113">
+      <c r="A25" s="111">
         <v>20</v>
       </c>
-      <c r="B25" s="113">
+      <c r="B25" s="111">
         <v>55</v>
       </c>
-      <c r="C25" s="123">
+      <c r="C25" s="121">
         <v>0.05</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="121">
         <v>0.05</v>
       </c>
-      <c r="E25" s="117">
+      <c r="E25" s="115">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F25" s="123">
+      <c r="F25" s="121">
         <v>0.06</v>
       </c>
-      <c r="G25" s="113">
+      <c r="G25" s="111">
         <v>0.04</v>
       </c>
-      <c r="H25" s="113">
+      <c r="H25" s="111">
         <v>0.05</v>
       </c>
-      <c r="I25" s="123">
+      <c r="I25" s="121">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="113">
+      <c r="A26" s="111">
         <v>20</v>
       </c>
-      <c r="B26" s="113">
+      <c r="B26" s="111">
         <v>60</v>
       </c>
-      <c r="C26" s="123">
+      <c r="C26" s="121">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="121">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E26" s="117">
+      <c r="E26" s="115">
         <v>0.12</v>
       </c>
-      <c r="F26" s="126">
+      <c r="F26" s="124">
         <v>0.13500000000000001</v>
       </c>
-      <c r="G26" s="113">
+      <c r="G26" s="111">
         <v>0.09</v>
       </c>
-      <c r="H26" s="113">
+      <c r="H26" s="111">
         <v>0.11</v>
       </c>
-      <c r="I26" s="123">
+      <c r="I26" s="121">
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="113">
+      <c r="A27" s="111">
         <v>20</v>
       </c>
-      <c r="B27" s="113">
+      <c r="B27" s="111">
         <v>65</v>
       </c>
-      <c r="C27" s="123">
+      <c r="C27" s="121">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="121">
         <v>0.3</v>
       </c>
-      <c r="E27" s="117">
+      <c r="E27" s="115">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F27" s="126">
+      <c r="F27" s="124">
         <v>0.375</v>
       </c>
-      <c r="G27" s="113">
+      <c r="G27" s="111">
         <v>0.3</v>
       </c>
-      <c r="H27" s="113">
+      <c r="H27" s="111">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I27" s="123">
+      <c r="I27" s="121">
         <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="113">
+      <c r="A28" s="111">
         <v>20</v>
       </c>
-      <c r="B28" s="113">
+      <c r="B28" s="111">
         <v>70</v>
       </c>
-      <c r="C28" s="123">
+      <c r="C28" s="121">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="121">
         <v>0.2</v>
       </c>
-      <c r="E28" s="117">
+      <c r="E28" s="115">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F28" s="126">
+      <c r="F28" s="124">
         <v>0.3</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="111">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H28" s="113">
+      <c r="H28" s="111">
         <v>0.25</v>
       </c>
-      <c r="I28" s="123">
+      <c r="I28" s="121">
         <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="113">
+      <c r="A29" s="111">
         <v>20</v>
       </c>
-      <c r="B29" s="113">
+      <c r="B29" s="111">
         <v>75</v>
       </c>
-      <c r="C29" s="123">
+      <c r="C29" s="121">
         <v>1</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="121">
         <v>1</v>
       </c>
-      <c r="E29" s="117">
+      <c r="E29" s="115">
         <v>1</v>
       </c>
-      <c r="F29" s="124">
+      <c r="F29" s="122">
         <v>1</v>
       </c>
-      <c r="G29" s="113">
+      <c r="G29" s="111">
         <v>1</v>
       </c>
-      <c r="H29" s="113">
+      <c r="H29" s="111">
         <v>1</v>
       </c>
-      <c r="I29" s="123">
+      <c r="I29" s="121">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="112">
+      <c r="A30" s="110">
         <v>25</v>
       </c>
-      <c r="B30" s="112">
+      <c r="B30" s="110">
         <v>50</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="116">
         <v>0.08</v>
       </c>
-      <c r="D30" s="118">
+      <c r="D30" s="116">
         <v>0.06</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E30" s="118">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F30" s="118">
+      <c r="F30" s="116">
         <v>5.5E-2</v>
       </c>
-      <c r="G30" s="118">
+      <c r="G30" s="116">
         <v>0.08</v>
       </c>
-      <c r="H30" s="118">
+      <c r="H30" s="116">
         <v>5.5E-2</v>
       </c>
-      <c r="I30" s="118">
+      <c r="I30" s="116">
         <v>0.09</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="112">
+      <c r="A31" s="110">
         <v>25</v>
       </c>
-      <c r="B31" s="112">
+      <c r="B31" s="110">
         <v>55</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="116">
         <v>0.1</v>
       </c>
-      <c r="D31" s="118">
+      <c r="D31" s="116">
         <v>0.08</v>
       </c>
-      <c r="E31" s="116">
+      <c r="E31" s="114">
         <v>0.09</v>
       </c>
-      <c r="F31" s="118">
+      <c r="F31" s="116">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G31" s="118">
+      <c r="G31" s="116">
         <v>0.1</v>
       </c>
-      <c r="H31" s="118">
+      <c r="H31" s="116">
         <v>0.09</v>
       </c>
-      <c r="I31" s="118">
+      <c r="I31" s="116">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="112">
+      <c r="A32" s="110">
         <v>25</v>
       </c>
-      <c r="B32" s="112">
+      <c r="B32" s="110">
         <v>60</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D32" s="118">
+      <c r="D32" s="116">
         <v>0.25</v>
       </c>
-      <c r="E32" s="116">
+      <c r="E32" s="114">
         <v>0.3</v>
       </c>
-      <c r="F32" s="118">
+      <c r="F32" s="116">
         <v>0.45</v>
       </c>
-      <c r="G32" s="118">
+      <c r="G32" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H32" s="118">
+      <c r="H32" s="116">
         <v>0.25</v>
       </c>
-      <c r="I32" s="118">
+      <c r="I32" s="116">
         <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="112">
+      <c r="A33" s="110">
         <v>25</v>
       </c>
-      <c r="B33" s="112">
+      <c r="B33" s="110">
         <v>65</v>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D33" s="118">
+      <c r="D33" s="116">
         <v>0.3</v>
       </c>
-      <c r="E33" s="116">
+      <c r="E33" s="114">
         <v>0.2</v>
       </c>
-      <c r="F33" s="118">
+      <c r="F33" s="116">
         <v>0.35</v>
       </c>
-      <c r="G33" s="118">
+      <c r="G33" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H33" s="118">
+      <c r="H33" s="116">
         <v>0.35</v>
       </c>
-      <c r="I33" s="118">
+      <c r="I33" s="116">
         <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="112">
+      <c r="A34" s="110">
         <v>25</v>
       </c>
-      <c r="B34" s="112">
+      <c r="B34" s="110">
         <v>70</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D34" s="118">
+      <c r="D34" s="116">
         <v>0.2</v>
       </c>
-      <c r="E34" s="116">
+      <c r="E34" s="114">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F34" s="118">
+      <c r="F34" s="116">
         <v>0.3</v>
       </c>
-      <c r="G34" s="118">
+      <c r="G34" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H34" s="118">
+      <c r="H34" s="116">
         <v>0.25</v>
       </c>
-      <c r="I34" s="118">
+      <c r="I34" s="116">
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="112">
+      <c r="A35" s="110">
         <v>25</v>
       </c>
-      <c r="B35" s="112">
+      <c r="B35" s="110">
         <v>75</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="116">
         <v>1</v>
       </c>
-      <c r="D35" s="118">
+      <c r="D35" s="116">
         <v>1</v>
       </c>
-      <c r="E35" s="116">
+      <c r="E35" s="114">
         <v>1</v>
       </c>
-      <c r="F35" s="119">
+      <c r="F35" s="117">
         <v>1</v>
       </c>
-      <c r="G35" s="119">
+      <c r="G35" s="117">
         <v>1</v>
       </c>
-      <c r="H35" s="118">
+      <c r="H35" s="116">
         <v>1</v>
       </c>
-      <c r="I35" s="118">
+      <c r="I35" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="113">
+      <c r="A36" s="111">
         <v>30</v>
       </c>
-      <c r="B36" s="113">
+      <c r="B36" s="111">
         <v>50</v>
       </c>
-      <c r="C36" s="123">
+      <c r="C36" s="121">
         <v>0.35</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="121">
         <v>0.4</v>
       </c>
-      <c r="E36" s="124">
+      <c r="E36" s="122">
         <v>0.3</v>
       </c>
-      <c r="F36" s="123">
+      <c r="F36" s="121">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G36" s="123">
+      <c r="G36" s="121">
         <v>0.3</v>
       </c>
-      <c r="H36" s="123">
+      <c r="H36" s="121">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I36" s="123">
+      <c r="I36" s="121">
         <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="113">
+      <c r="A37" s="111">
         <v>30</v>
       </c>
-      <c r="B37" s="113">
+      <c r="B37" s="111">
         <v>55</v>
       </c>
-      <c r="C37" s="123">
+      <c r="C37" s="121">
         <v>0.35</v>
       </c>
-      <c r="D37" s="123">
+      <c r="D37" s="121">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E37" s="117">
+      <c r="E37" s="115">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F37" s="123">
+      <c r="F37" s="121">
         <v>0.4</v>
       </c>
-      <c r="G37" s="123">
+      <c r="G37" s="121">
         <v>0.25</v>
       </c>
-      <c r="H37" s="123">
+      <c r="H37" s="121">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I37" s="123">
+      <c r="I37" s="121">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="113">
+      <c r="A38" s="111">
         <v>30</v>
       </c>
-      <c r="B38" s="113">
+      <c r="B38" s="111">
         <v>60</v>
       </c>
-      <c r="C38" s="123">
+      <c r="C38" s="121">
         <v>0.3</v>
       </c>
-      <c r="D38" s="123">
+      <c r="D38" s="121">
         <v>0.3</v>
       </c>
-      <c r="E38" s="117">
+      <c r="E38" s="115">
         <v>0.25</v>
       </c>
-      <c r="F38" s="123">
+      <c r="F38" s="121">
         <v>0.5</v>
       </c>
-      <c r="G38" s="123">
+      <c r="G38" s="121">
         <v>0.25</v>
       </c>
-      <c r="H38" s="123">
+      <c r="H38" s="121">
         <v>0.25</v>
       </c>
-      <c r="I38" s="123">
+      <c r="I38" s="121">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="113">
+      <c r="A39" s="111">
         <v>30</v>
       </c>
-      <c r="B39" s="113">
+      <c r="B39" s="111">
         <v>65</v>
       </c>
-      <c r="C39" s="123">
+      <c r="C39" s="121">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D39" s="123">
+      <c r="D39" s="121">
         <v>0.3</v>
       </c>
-      <c r="E39" s="117">
+      <c r="E39" s="115">
         <v>0.2</v>
       </c>
-      <c r="F39" s="123">
+      <c r="F39" s="121">
         <v>0.35</v>
       </c>
-      <c r="G39" s="123">
+      <c r="G39" s="121">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H39" s="123">
+      <c r="H39" s="121">
         <v>0.35</v>
       </c>
-      <c r="I39" s="123">
+      <c r="I39" s="121">
         <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="113">
+      <c r="A40" s="111">
         <v>30</v>
       </c>
-      <c r="B40" s="113">
+      <c r="B40" s="111">
         <v>70</v>
       </c>
-      <c r="C40" s="123">
+      <c r="C40" s="121">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D40" s="123">
+      <c r="D40" s="121">
         <v>0.2</v>
       </c>
-      <c r="E40" s="117">
+      <c r="E40" s="115">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F40" s="123">
+      <c r="F40" s="121">
         <v>0.3</v>
       </c>
-      <c r="G40" s="123">
+      <c r="G40" s="121">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H40" s="123">
+      <c r="H40" s="121">
         <v>0.25</v>
       </c>
-      <c r="I40" s="123">
+      <c r="I40" s="121">
         <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="113">
+      <c r="A41" s="111">
         <v>30</v>
       </c>
-      <c r="B41" s="113">
+      <c r="B41" s="111">
         <v>75</v>
       </c>
-      <c r="C41" s="123">
+      <c r="C41" s="121">
         <v>1</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="121">
         <v>1</v>
       </c>
-      <c r="E41" s="117">
+      <c r="E41" s="115">
         <v>1</v>
       </c>
-      <c r="F41" s="125">
+      <c r="F41" s="123">
         <v>1</v>
       </c>
-      <c r="G41" s="125">
+      <c r="G41" s="123">
         <v>1</v>
       </c>
-      <c r="H41" s="123">
+      <c r="H41" s="121">
         <v>1</v>
       </c>
-      <c r="I41" s="123">
+      <c r="I41" s="121">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="112">
+      <c r="A42" s="110">
         <v>35</v>
       </c>
-      <c r="B42" s="112">
+      <c r="B42" s="110">
         <v>50</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="116">
         <v>0.2</v>
       </c>
-      <c r="D42" s="118">
+      <c r="D42" s="116">
         <v>0.3</v>
       </c>
-      <c r="E42" s="120">
+      <c r="E42" s="118">
         <v>0.3</v>
       </c>
-      <c r="F42" s="118">
+      <c r="F42" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G42" s="118">
+      <c r="G42" s="116">
         <v>0.15</v>
       </c>
-      <c r="H42" s="118">
+      <c r="H42" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I42" s="118">
+      <c r="I42" s="116">
         <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="112">
+      <c r="A43" s="110">
         <v>35</v>
       </c>
-      <c r="B43" s="112">
+      <c r="B43" s="110">
         <v>55</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="116">
         <v>0.2</v>
       </c>
-      <c r="D43" s="118">
+      <c r="D43" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E43" s="116">
+      <c r="E43" s="114">
         <v>0.25</v>
       </c>
-      <c r="F43" s="118">
+      <c r="F43" s="116">
         <v>0.3</v>
       </c>
-      <c r="G43" s="118">
+      <c r="G43" s="116">
         <v>0.2</v>
       </c>
-      <c r="H43" s="118">
+      <c r="H43" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="I43" s="118">
+      <c r="I43" s="116">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="112">
+      <c r="A44" s="110">
         <v>35</v>
       </c>
-      <c r="B44" s="112">
+      <c r="B44" s="110">
         <v>60</v>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D44" s="118">
+      <c r="D44" s="116">
         <v>0.2</v>
       </c>
-      <c r="E44" s="116">
+      <c r="E44" s="114">
         <v>0.25</v>
       </c>
-      <c r="F44" s="118">
+      <c r="F44" s="116">
         <v>0.32500000000000001</v>
       </c>
-      <c r="G44" s="118">
+      <c r="G44" s="116">
         <v>0.25</v>
       </c>
-      <c r="H44" s="118">
+      <c r="H44" s="116">
         <v>0.25</v>
       </c>
-      <c r="I44" s="118">
+      <c r="I44" s="116">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="112">
+      <c r="A45" s="110">
         <v>35</v>
       </c>
-      <c r="B45" s="112">
+      <c r="B45" s="110">
         <v>65</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D45" s="118">
+      <c r="D45" s="116">
         <v>0.3</v>
       </c>
-      <c r="E45" s="116">
+      <c r="E45" s="114">
         <v>0.2</v>
       </c>
-      <c r="F45" s="118">
+      <c r="F45" s="116">
         <v>0.35</v>
       </c>
-      <c r="G45" s="118">
+      <c r="G45" s="116">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H45" s="118">
+      <c r="H45" s="116">
         <v>0.35</v>
       </c>
-      <c r="I45" s="118">
+      <c r="I45" s="116">
         <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="112">
+      <c r="A46" s="110">
         <v>35</v>
       </c>
-      <c r="B46" s="112">
+      <c r="B46" s="110">
         <v>70</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D46" s="118">
+      <c r="D46" s="116">
         <v>0.2</v>
       </c>
-      <c r="E46" s="116">
+      <c r="E46" s="114">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F46" s="118">
+      <c r="F46" s="116">
         <v>0.3</v>
       </c>
-      <c r="G46" s="118">
+      <c r="G46" s="116">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H46" s="118">
+      <c r="H46" s="116">
         <v>0.25</v>
       </c>
-      <c r="I46" s="118">
+      <c r="I46" s="116">
         <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="112">
+      <c r="A47" s="110">
         <v>35</v>
       </c>
-      <c r="B47" s="112">
+      <c r="B47" s="110">
         <v>75</v>
       </c>
-      <c r="C47" s="118">
+      <c r="C47" s="116">
         <v>1</v>
       </c>
-      <c r="D47" s="118">
+      <c r="D47" s="116">
         <v>1</v>
       </c>
-      <c r="E47" s="116">
+      <c r="E47" s="114">
         <v>1</v>
       </c>
-      <c r="F47" s="119">
+      <c r="F47" s="117">
         <v>1</v>
       </c>
-      <c r="G47" s="119">
+      <c r="G47" s="117">
         <v>1</v>
       </c>
-      <c r="H47" s="118">
+      <c r="H47" s="116">
         <v>1</v>
       </c>
-      <c r="I47" s="118">
+      <c r="I47" s="116">
         <v>1</v>
       </c>
     </row>
@@ -4713,7 +4721,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,57 +4744,55 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="174" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="174"/>
+      <c r="B4" s="173" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>156</v>
+      <c r="B5" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="181" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="181"/>
+    </row>
+    <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="171" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="182" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="182"/>
-    </row>
-    <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="180" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="180"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="181" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="181"/>
+      <c r="A9" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4840,226 +4846,226 @@
         <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="184" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="184"/>
+      <c r="A5" s="182" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="183" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="183"/>
     </row>
     <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183"/>
-      <c r="B6" s="185" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="127" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="127" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="129" t="s">
-        <v>184</v>
+      <c r="A6" s="182"/>
+      <c r="B6" s="184" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="127" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="139" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="139" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="139" t="s">
-        <v>226</v>
-      </c>
-      <c r="I7" s="139" t="s">
-        <v>227</v>
+      <c r="A7" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="137" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130">
+      <c r="A8" s="128">
         <v>0</v>
       </c>
-      <c r="B8" s="131">
+      <c r="B8" s="129">
         <v>0.18</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="129">
         <v>0.19500000000000001</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="129">
         <v>0.19</v>
       </c>
-      <c r="E8" s="131">
+      <c r="E8" s="129">
         <v>0.17</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="130">
         <v>0.13</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="129">
         <v>0.13</v>
       </c>
-      <c r="H8" s="133">
+      <c r="H8" s="131">
         <v>0.19</v>
       </c>
-      <c r="I8" s="133">
+      <c r="I8" s="131">
         <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134">
+      <c r="A9" s="132">
         <v>1</v>
       </c>
-      <c r="B9" s="135">
+      <c r="B9" s="133">
         <v>0.155</v>
       </c>
-      <c r="C9" s="135">
+      <c r="C9" s="133">
         <v>0.17</v>
       </c>
-      <c r="D9" s="135">
+      <c r="D9" s="133">
         <v>0.16</v>
       </c>
-      <c r="E9" s="135">
+      <c r="E9" s="133">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F9" s="136">
+      <c r="F9" s="134">
         <v>0.1</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="133">
         <v>0.1</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="135">
         <v>0.16</v>
       </c>
-      <c r="I9" s="137">
+      <c r="I9" s="135">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134">
+      <c r="A10" s="132">
         <v>2</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="133">
         <v>0.13</v>
       </c>
-      <c r="C10" s="135">
+      <c r="C10" s="133">
         <v>0.14499999999999999</v>
       </c>
-      <c r="D10" s="135">
+      <c r="D10" s="133">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="133">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F10" s="136">
+      <c r="F10" s="134">
         <v>0.09</v>
       </c>
-      <c r="G10" s="135">
+      <c r="G10" s="133">
         <v>0.09</v>
       </c>
-      <c r="H10" s="137">
+      <c r="H10" s="135">
         <v>0.13</v>
       </c>
-      <c r="I10" s="137">
+      <c r="I10" s="135">
         <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134">
+      <c r="A11" s="132">
         <v>3</v>
       </c>
-      <c r="B11" s="135">
+      <c r="B11" s="133">
         <v>0.11</v>
       </c>
-      <c r="C11" s="135">
+      <c r="C11" s="133">
         <v>0.115</v>
       </c>
-      <c r="D11" s="135">
+      <c r="D11" s="133">
         <v>0.12</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="133">
         <v>0.12</v>
       </c>
-      <c r="F11" s="136">
+      <c r="F11" s="134">
         <v>0.06</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="133">
         <v>0.06</v>
       </c>
-      <c r="H11" s="137">
+      <c r="H11" s="135">
         <v>0.115</v>
       </c>
-      <c r="I11" s="137">
+      <c r="I11" s="135">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="134">
+      <c r="A12" s="132">
         <v>4</v>
       </c>
-      <c r="B12" s="135">
+      <c r="B12" s="133">
         <v>0.09</v>
       </c>
-      <c r="C12" s="135">
+      <c r="C12" s="133">
         <v>0.1</v>
       </c>
-      <c r="D12" s="135">
+      <c r="D12" s="133">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="133">
         <v>0.1</v>
       </c>
-      <c r="F12" s="136">
+      <c r="F12" s="134">
         <v>0.06</v>
       </c>
-      <c r="G12" s="135">
+      <c r="G12" s="133">
         <v>0.06</v>
       </c>
-      <c r="H12" s="137">
+      <c r="H12" s="135">
         <v>0.1</v>
       </c>
-      <c r="I12" s="137">
+      <c r="I12" s="135">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
@@ -5090,7 +5096,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="7" width="19.42578125" style="61" customWidth="1"/>
+    <col min="2" max="7" width="19.42578125" style="59" customWidth="1"/>
     <col min="8" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
@@ -5105,7 +5111,7 @@
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5113,292 +5119,292 @@
       <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>123</v>
+      <c r="B3" s="58" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="141" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="141" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="141" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="141" t="s">
-        <v>235</v>
+      <c r="B7" s="139" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="139" t="s">
+        <v>217</v>
+      </c>
+      <c r="H7" s="139" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="139" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="142">
+      <c r="A8" s="140">
         <v>25</v>
       </c>
-      <c r="B8" s="143">
+      <c r="B8" s="141">
         <v>0.08</v>
       </c>
-      <c r="C8" s="144">
+      <c r="C8" s="142">
         <v>0.11</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="141">
         <v>0.08</v>
       </c>
-      <c r="E8" s="144">
+      <c r="E8" s="142">
         <v>0.09</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="143">
         <v>0.08</v>
       </c>
-      <c r="G8" s="146">
+      <c r="G8" s="144">
         <v>0.12</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="143">
         <v>0.04</v>
       </c>
-      <c r="I8" s="146">
+      <c r="I8" s="144">
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="142">
+      <c r="A9" s="140">
         <v>30</v>
       </c>
-      <c r="B9" s="147">
+      <c r="B9" s="145">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C9" s="148">
+      <c r="C9" s="146">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D9" s="147">
+      <c r="D9" s="145">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E9" s="148">
+      <c r="E9" s="146">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F9" s="149">
+      <c r="F9" s="147">
         <v>0.06</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="148">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H9" s="149">
+      <c r="H9" s="147">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I9" s="150">
+      <c r="I9" s="148">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="142">
+      <c r="A10" s="140">
         <v>35</v>
       </c>
-      <c r="B10" s="147">
+      <c r="B10" s="145">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="146">
         <v>0.06</v>
       </c>
-      <c r="D10" s="147">
+      <c r="D10" s="145">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E10" s="148">
+      <c r="E10" s="146">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F10" s="149">
+      <c r="F10" s="147">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G10" s="150">
+      <c r="G10" s="148">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H10" s="149">
+      <c r="H10" s="147">
         <v>0.03</v>
       </c>
-      <c r="I10" s="150">
+      <c r="I10" s="148">
         <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="142">
+      <c r="A11" s="140">
         <v>40</v>
       </c>
-      <c r="B11" s="147">
+      <c r="B11" s="145">
         <v>0.04</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="146">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D11" s="147">
+      <c r="D11" s="145">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="146">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F11" s="149">
+      <c r="F11" s="147">
         <v>0.04</v>
       </c>
-      <c r="G11" s="150">
+      <c r="G11" s="148">
         <v>0.04</v>
       </c>
-      <c r="H11" s="149">
+      <c r="H11" s="147">
         <v>0.03</v>
       </c>
-      <c r="I11" s="150">
+      <c r="I11" s="148">
         <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="142">
+      <c r="A12" s="140">
         <v>45</v>
       </c>
-      <c r="B12" s="147">
+      <c r="B12" s="145">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C12" s="148">
+      <c r="C12" s="146">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D12" s="147">
+      <c r="D12" s="145">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E12" s="148">
+      <c r="E12" s="146">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F12" s="149">
+      <c r="F12" s="147">
         <v>0.04</v>
       </c>
-      <c r="G12" s="150">
+      <c r="G12" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H12" s="149">
+      <c r="H12" s="147">
         <v>0.04</v>
       </c>
-      <c r="I12" s="150">
+      <c r="I12" s="148">
         <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="142">
+      <c r="A13" s="140">
         <v>50</v>
       </c>
-      <c r="B13" s="147">
+      <c r="B13" s="145">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C13" s="148">
+      <c r="C13" s="146">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="145">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E13" s="148">
+      <c r="E13" s="146">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F13" s="149">
+      <c r="F13" s="147">
         <v>0.04</v>
       </c>
-      <c r="G13" s="150">
+      <c r="G13" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H13" s="149">
+      <c r="H13" s="147">
         <v>0.04</v>
       </c>
-      <c r="I13" s="150">
+      <c r="I13" s="148">
         <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="142">
+      <c r="A14" s="140">
         <v>55</v>
       </c>
-      <c r="B14" s="147">
+      <c r="B14" s="145">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="146">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D14" s="147">
+      <c r="D14" s="145">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E14" s="148">
+      <c r="E14" s="146">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F14" s="149">
+      <c r="F14" s="147">
         <v>0.04</v>
       </c>
-      <c r="G14" s="150">
+      <c r="G14" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H14" s="149">
+      <c r="H14" s="147">
         <v>0.04</v>
       </c>
-      <c r="I14" s="150">
+      <c r="I14" s="148">
         <v>0.04</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="142">
+      <c r="A15" s="140">
         <v>60</v>
       </c>
-      <c r="B15" s="147">
+      <c r="B15" s="145">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="146">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="D15" s="147">
+      <c r="D15" s="145">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E15" s="148">
+      <c r="E15" s="146">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F15" s="149">
+      <c r="F15" s="147">
         <v>0.04</v>
       </c>
-      <c r="G15" s="150">
+      <c r="G15" s="148">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="147">
         <v>0.04</v>
       </c>
-      <c r="I15" s="150">
+      <c r="I15" s="148">
         <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5413,7 +5419,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -5435,51 +5441,51 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="174" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="174"/>
+      <c r="B4" s="173" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="173"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>156</v>
+      <c r="B5" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="182" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="187"/>
+      <c r="A6" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="181" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="186"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="179"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="178"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="173" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="173"/>
+      <c r="A9" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="172" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5534,280 +5540,280 @@
         <v>47</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="152" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="152" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="152" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="152" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="152" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="152" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" s="152" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="152" t="s">
-        <v>193</v>
-      </c>
-      <c r="J6" s="61"/>
+      <c r="B6" s="150" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="150" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="142">
+      <c r="A7" s="140">
         <v>25</v>
       </c>
-      <c r="B7" s="144">
+      <c r="B7" s="142">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="142">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="141">
         <v>1E-4</v>
       </c>
-      <c r="E7" s="144">
+      <c r="E7" s="142">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="141">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G7" s="144">
+      <c r="G7" s="142">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="144">
+      <c r="H7" s="142">
         <v>3.3E-3</v>
       </c>
-      <c r="I7" s="144">
+      <c r="I7" s="142">
         <v>3.3E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="142">
+      <c r="A8" s="140">
         <v>30</v>
       </c>
-      <c r="B8" s="148">
+      <c r="B8" s="146">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C8" s="148">
+      <c r="C8" s="146">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D8" s="147">
+      <c r="D8" s="145">
         <v>1E-4</v>
       </c>
-      <c r="E8" s="148">
+      <c r="E8" s="146">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="145">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="146">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H8" s="148">
+      <c r="H8" s="146">
         <v>4.3E-3</v>
       </c>
-      <c r="I8" s="148">
+      <c r="I8" s="146">
         <v>4.3E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="142">
+      <c r="A9" s="140">
         <v>35</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="146">
         <v>1E-3</v>
       </c>
-      <c r="C9" s="148">
+      <c r="C9" s="146">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="147">
+      <c r="D9" s="145">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E9" s="148">
+      <c r="E9" s="146">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F9" s="147">
+      <c r="F9" s="145">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="148">
+      <c r="G9" s="146">
         <v>1E-3</v>
       </c>
-      <c r="H9" s="148">
+      <c r="H9" s="146">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="148">
+      <c r="I9" s="146">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="142">
+      <c r="A10" s="140">
         <v>40</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="146">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="146">
         <v>1.8E-3</v>
       </c>
-      <c r="D10" s="147">
+      <c r="D10" s="145">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E10" s="148">
+      <c r="E10" s="146">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="147">
+      <c r="F10" s="145">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="148">
+      <c r="G10" s="146">
         <v>1.8E-3</v>
       </c>
-      <c r="H10" s="148">
+      <c r="H10" s="146">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="I10" s="148">
+      <c r="I10" s="146">
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="142">
+      <c r="A11" s="140">
         <v>45</v>
       </c>
-      <c r="B11" s="148">
+      <c r="B11" s="146">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="146">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D11" s="147">
+      <c r="D11" s="145">
         <v>1.4E-3</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="146">
         <v>1.8E-3</v>
       </c>
-      <c r="F11" s="147">
+      <c r="F11" s="145">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="146">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="H11" s="148">
+      <c r="H11" s="146">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I11" s="148">
+      <c r="I11" s="146">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="142">
+      <c r="A12" s="140">
         <v>50</v>
       </c>
-      <c r="B12" s="148">
+      <c r="B12" s="146">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="C12" s="148">
+      <c r="C12" s="146">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D12" s="147">
+      <c r="D12" s="145">
         <v>2.3E-3</v>
       </c>
-      <c r="E12" s="148">
+      <c r="E12" s="146">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="F12" s="147">
+      <c r="F12" s="145">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G12" s="148">
+      <c r="G12" s="146">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="148">
+      <c r="H12" s="146">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="I12" s="148">
+      <c r="I12" s="146">
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="142">
+      <c r="A13" s="140">
         <v>55</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="146">
         <v>1.44E-2</v>
       </c>
-      <c r="C13" s="148">
+      <c r="C13" s="146">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="145">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="E13" s="148">
+      <c r="E13" s="146">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="F13" s="147">
+      <c r="F13" s="145">
         <v>1.44E-2</v>
       </c>
-      <c r="G13" s="148">
+      <c r="G13" s="146">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="H13" s="171">
+      <c r="H13" s="169">
         <v>0</v>
       </c>
-      <c r="I13" s="171">
+      <c r="I13" s="169">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="142">
+      <c r="A14" s="140">
         <v>60</v>
       </c>
-      <c r="B14" s="148">
+      <c r="B14" s="146">
         <v>2.4E-2</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="146">
         <v>1.38E-2</v>
       </c>
-      <c r="D14" s="147">
+      <c r="D14" s="145">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E14" s="148">
+      <c r="E14" s="146">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="F14" s="147">
+      <c r="F14" s="145">
         <v>2.4E-2</v>
       </c>
-      <c r="G14" s="148">
+      <c r="G14" s="146">
         <v>1.38E-2</v>
       </c>
-      <c r="H14" s="171">
+      <c r="H14" s="169">
         <v>0</v>
       </c>
-      <c r="I14" s="171">
+      <c r="I14" s="169">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5841,28 +5847,28 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="179" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="178"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="179"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5902,7 +5908,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5910,325 +5916,325 @@
         <v>47</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="152" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="152" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="152" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="152" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="152" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="152" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="152" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="152" t="s">
-        <v>201</v>
+      <c r="B5" s="150" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="150" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="150" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="142">
+      <c r="A6" s="140">
         <v>25</v>
       </c>
-      <c r="B6" s="144">
+      <c r="B6" s="142">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="142">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="142">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="142">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="153">
+      <c r="F6" s="151">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G6" s="154">
+      <c r="G6" s="152">
         <v>1E-4</v>
       </c>
-      <c r="H6" s="155">
+      <c r="H6" s="153">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I6" s="154">
+      <c r="I6" s="152">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="142">
+      <c r="A7" s="140">
         <v>30</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="146">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="146">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="146">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E7" s="148">
+      <c r="E7" s="146">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F7" s="156">
+      <c r="F7" s="154">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G7" s="157">
+      <c r="G7" s="155">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H7" s="158">
+      <c r="H7" s="156">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I7" s="157">
+      <c r="I7" s="155">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="142">
+      <c r="A8" s="140">
         <v>35</v>
       </c>
-      <c r="B8" s="148">
+      <c r="B8" s="146">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C8" s="148">
+      <c r="C8" s="146">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D8" s="148">
+      <c r="D8" s="146">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E8" s="148">
+      <c r="E8" s="146">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F8" s="156">
+      <c r="F8" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G8" s="157">
+      <c r="G8" s="155">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H8" s="158">
+      <c r="H8" s="156">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I8" s="157">
+      <c r="I8" s="155">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="142">
+      <c r="A9" s="140">
         <v>40</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="146">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C9" s="148">
+      <c r="C9" s="146">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D9" s="148">
+      <c r="D9" s="146">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E9" s="148">
+      <c r="E9" s="146">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F9" s="156">
+      <c r="F9" s="154">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G9" s="157">
+      <c r="G9" s="155">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H9" s="158">
+      <c r="H9" s="156">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="I9" s="157">
+      <c r="I9" s="155">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="142">
+      <c r="A10" s="140">
         <v>45</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="146">
         <v>1E-3</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="146">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D10" s="148">
+      <c r="D10" s="146">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E10" s="148">
+      <c r="E10" s="146">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F10" s="156">
+      <c r="F10" s="154">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G10" s="157">
+      <c r="G10" s="155">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H10" s="158">
+      <c r="H10" s="156">
         <v>1E-3</v>
       </c>
-      <c r="I10" s="157">
+      <c r="I10" s="155">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="142">
+      <c r="A11" s="140">
         <v>50</v>
       </c>
-      <c r="B11" s="148">
+      <c r="B11" s="146">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="146">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D11" s="148">
+      <c r="D11" s="146">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="146">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F11" s="156">
+      <c r="F11" s="154">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G11" s="157">
+      <c r="G11" s="155">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H11" s="158">
+      <c r="H11" s="156">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I11" s="157">
+      <c r="I11" s="155">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="142">
+      <c r="A12" s="140">
         <v>55</v>
       </c>
-      <c r="B12" s="148">
+      <c r="B12" s="146">
         <v>2.8E-3</v>
       </c>
-      <c r="C12" s="148">
+      <c r="C12" s="146">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D12" s="148">
+      <c r="D12" s="146">
         <v>2E-3</v>
       </c>
-      <c r="E12" s="148">
+      <c r="E12" s="146">
         <v>1.4E-3</v>
       </c>
-      <c r="F12" s="156">
+      <c r="F12" s="154">
         <v>2E-3</v>
       </c>
-      <c r="G12" s="157">
+      <c r="G12" s="155">
         <v>1.4E-3</v>
       </c>
-      <c r="H12" s="158">
+      <c r="H12" s="156">
         <v>2.8E-3</v>
       </c>
-      <c r="I12" s="157">
+      <c r="I12" s="155">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="142">
+      <c r="A13" s="140">
         <v>60</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="146">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="C13" s="148">
+      <c r="C13" s="146">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D13" s="148">
+      <c r="D13" s="146">
         <v>3.3E-3</v>
       </c>
-      <c r="E13" s="148">
+      <c r="E13" s="146">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F13" s="156">
+      <c r="F13" s="154">
         <v>3.3E-3</v>
       </c>
-      <c r="G13" s="157">
+      <c r="G13" s="155">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="H13" s="158">
+      <c r="H13" s="156">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I13" s="157">
+      <c r="I13" s="155">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="142">
+      <c r="A14" s="140">
         <v>65</v>
       </c>
-      <c r="B14" s="148">
+      <c r="B14" s="146">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="146">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="146">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="E14" s="148">
+      <c r="E14" s="146">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="F14" s="156">
+      <c r="F14" s="154">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="157">
+      <c r="G14" s="155">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="H14" s="158">
+      <c r="H14" s="156">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="I14" s="157">
+      <c r="I14" s="155">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="142">
+      <c r="A15" s="140">
         <v>69</v>
       </c>
-      <c r="B15" s="148">
+      <c r="B15" s="146">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="146">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="146">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="E15" s="148">
+      <c r="E15" s="146">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F15" s="156">
+      <c r="F15" s="154">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="155">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="H15" s="158">
+      <c r="H15" s="156">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="I15" s="157">
+      <c r="I15" s="155">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
@@ -6243,205 +6249,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>117</v>
+      <c r="D6" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="32">
+        <v>220</v>
+      </c>
+      <c r="D7" s="34">
+        <v>20</v>
+      </c>
+      <c r="E7" s="34">
         <v>0</v>
       </c>
-      <c r="E7" s="34">
-        <v>20</v>
-      </c>
-      <c r="F7" s="34">
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
-        <v>3</v>
+      <c r="F7" s="39">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34">
+        <v>1</v>
       </c>
       <c r="H7" s="34">
         <v>1</v>
       </c>
       <c r="I7" s="34">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J7" s="34">
-        <v>62</v>
-      </c>
-      <c r="K7" s="34">
         <v>5</v>
-      </c>
-      <c r="L7" s="34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="M7" s="41">
-        <v>0</v>
-      </c>
-      <c r="N7" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="O7" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="32">
-        <v>0</v>
-      </c>
-      <c r="E8" s="34">
-        <v>20</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41">
-        <v>1</v>
-      </c>
-      <c r="I8" s="41">
-        <v>1</v>
-      </c>
-      <c r="J8" s="34">
-        <v>65</v>
-      </c>
-      <c r="K8" s="34">
-        <v>10</v>
-      </c>
-      <c r="L8" s="34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="M8" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="41">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="O8" s="41">
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="32">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41">
-        <v>20</v>
-      </c>
-      <c r="F9" s="41">
-        <v>0</v>
-      </c>
-      <c r="G9" s="41">
-        <v>3</v>
-      </c>
-      <c r="H9" s="41">
-        <v>1</v>
-      </c>
-      <c r="I9" s="41">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
-        <v>65</v>
-      </c>
-      <c r="K9" s="41">
-        <v>10</v>
-      </c>
-      <c r="L9" s="41">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="M9" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="41">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="O9" s="41">
-        <v>5.1499999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6479,7 +6370,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6487,339 +6378,339 @@
         <v>47</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="152" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="152" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="152" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="152" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="152" t="s">
-        <v>208</v>
-      </c>
-      <c r="I5" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="J5" s="159" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="159" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" s="159" t="s">
-        <v>215</v>
-      </c>
-      <c r="M5" s="159" t="s">
-        <v>216</v>
+      <c r="B5" s="150" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="157" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="157" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142">
+      <c r="A6" s="140">
         <v>55</v>
       </c>
-      <c r="B6" s="165">
+      <c r="B6" s="163">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="C6" s="166">
+      <c r="C6" s="164">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="D6" s="167">
+      <c r="D6" s="165">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E6" s="168" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="167">
+      <c r="E6" s="166" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="165">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="G6" s="168" t="s">
-        <v>210</v>
-      </c>
-      <c r="H6" s="168" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="144">
+      <c r="G6" s="166" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="166" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="142">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="K6" s="144">
+      <c r="K6" s="142">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L6" s="144">
+      <c r="L6" s="142">
         <v>2.41E-2</v>
       </c>
-      <c r="M6" s="154">
+      <c r="M6" s="152">
         <v>1.43E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142">
+      <c r="A7" s="140">
         <v>60</v>
       </c>
-      <c r="B7" s="169">
+      <c r="B7" s="167">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="C7" s="170">
+      <c r="C7" s="168">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D7" s="171">
+      <c r="D7" s="169">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E7" s="148">
+      <c r="E7" s="146">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="169">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G7" s="148">
+      <c r="G7" s="146">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H7" s="148">
+      <c r="H7" s="146">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="I7" s="148">
+      <c r="I7" s="146">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="J7" s="148">
+      <c r="J7" s="146">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="K7" s="148">
+      <c r="K7" s="146">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="L7" s="148">
+      <c r="L7" s="146">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="M7" s="157">
+      <c r="M7" s="155">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="142">
+      <c r="A8" s="140">
         <v>65</v>
       </c>
-      <c r="B8" s="169">
+      <c r="B8" s="167">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="C8" s="170">
+      <c r="C8" s="168">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="D8" s="171">
+      <c r="D8" s="169">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="148">
+      <c r="E8" s="146">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="169">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="146">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="H8" s="148">
+      <c r="H8" s="146">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I8" s="148">
+      <c r="I8" s="146">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J8" s="148">
+      <c r="J8" s="146">
         <v>1.35E-2</v>
       </c>
-      <c r="K8" s="148">
+      <c r="K8" s="146">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="L8" s="148">
+      <c r="L8" s="146">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="M8" s="157">
+      <c r="M8" s="155">
         <v>2.07E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142">
+      <c r="A9" s="140">
         <v>70</v>
       </c>
-      <c r="B9" s="169">
+      <c r="B9" s="167">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="C9" s="170">
+      <c r="C9" s="168">
         <v>1.04E-2</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="169">
         <v>1.14E-2</v>
       </c>
-      <c r="E9" s="148">
+      <c r="E9" s="146">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="169">
         <v>1.14E-2</v>
       </c>
-      <c r="G9" s="148">
+      <c r="G9" s="146">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="H9" s="148">
+      <c r="H9" s="146">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="I9" s="148">
+      <c r="I9" s="146">
         <v>1.29E-2</v>
       </c>
-      <c r="J9" s="148">
+      <c r="J9" s="146">
         <v>2.06E-2</v>
       </c>
-      <c r="K9" s="148">
+      <c r="K9" s="146">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="L9" s="148">
+      <c r="L9" s="146">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="M9" s="157">
+      <c r="M9" s="155">
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142">
+      <c r="A10" s="140">
         <v>75</v>
       </c>
-      <c r="B10" s="169">
+      <c r="B10" s="167">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="168">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D10" s="171">
+      <c r="D10" s="169">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="E10" s="148">
+      <c r="E10" s="146">
         <v>1.37E-2</v>
       </c>
-      <c r="F10" s="171">
+      <c r="F10" s="169">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="G10" s="148">
+      <c r="G10" s="146">
         <v>1.37E-2</v>
       </c>
-      <c r="H10" s="148">
+      <c r="H10" s="146">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="I10" s="148">
+      <c r="I10" s="146">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="J10" s="148">
+      <c r="J10" s="146">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K10" s="148">
+      <c r="K10" s="146">
         <v>2.58E-2</v>
       </c>
-      <c r="L10" s="148">
+      <c r="L10" s="146">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="M10" s="157">
+      <c r="M10" s="155">
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="142">
+      <c r="A11" s="140">
         <v>80</v>
       </c>
-      <c r="B11" s="169">
+      <c r="B11" s="167">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="C11" s="170">
+      <c r="C11" s="168">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="D11" s="171">
+      <c r="D11" s="169">
         <v>4.48E-2</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="146">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="F11" s="171">
+      <c r="F11" s="169">
         <v>4.48E-2</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="146">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="H11" s="148">
+      <c r="H11" s="146">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="I11" s="148">
+      <c r="I11" s="146">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J11" s="148">
+      <c r="J11" s="146">
         <v>5.5E-2</v>
       </c>
-      <c r="K11" s="148">
+      <c r="K11" s="146">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="L11" s="148">
+      <c r="L11" s="146">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="M11" s="157">
+      <c r="M11" s="155">
         <v>6.0400000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="162"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="160"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="162"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="160"/>
     </row>
     <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="162"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="160"/>
     </row>
     <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="162"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="160"/>
     </row>
     <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6834,444 +6725,337 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O4">
-        <f>32311/30902</f>
-        <v>1.0455957543201087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="O5">
-        <f>32971/32311</f>
-        <v>1.0204264801460803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="37">
-        <v>30902000000</v>
-      </c>
-      <c r="E6" s="37">
-        <v>30902000000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
+        <v>22672.6</v>
       </c>
       <c r="H6">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+      <c r="I6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D7" s="38">
-        <v>32311000000</v>
-      </c>
-      <c r="E7" s="38">
-        <v>32311000000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23166.7</v>
+      </c>
+      <c r="I7">
+        <v>-11.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D8" s="38">
-        <v>32971000000</v>
-      </c>
-      <c r="E8" s="38">
-        <v>32971000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24155.4</v>
+      </c>
+      <c r="I8">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="38">
-        <v>34176000000</v>
-      </c>
-      <c r="E9" s="38">
-        <v>34176000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>2019</v>
-      </c>
-      <c r="D10" s="38">
-        <v>35379000000</v>
-      </c>
-      <c r="E10" s="38">
-        <v>35379000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="38">
-        <v>36758000000</v>
-      </c>
-      <c r="E11" s="38">
-        <v>36758000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>2021</v>
-      </c>
-      <c r="D12" s="38">
-        <v>37936000000</v>
-      </c>
-      <c r="E12" s="38">
-        <v>37936000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="40">
-        <f t="shared" ref="E13:E36" si="0">E12*(1 + H$5)</f>
-        <v>39187888000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="40">
-        <f t="shared" si="0"/>
-        <v>40481088304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="40">
-        <f t="shared" si="0"/>
-        <v>41816964218.031998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="40">
-        <f t="shared" si="0"/>
-        <v>43196924037.227051</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="40">
-        <f t="shared" si="0"/>
-        <v>44622422530.455544</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="40">
-        <f t="shared" si="0"/>
-        <v>46094962473.960571</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="40">
-        <f t="shared" si="0"/>
-        <v>47616096235.601265</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="40">
-        <f t="shared" si="0"/>
-        <v>49187427411.376106</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="40">
-        <f t="shared" si="0"/>
-        <v>50810612515.951515</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="40">
-        <f t="shared" si="0"/>
-        <v>52487362728.977913</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="40">
-        <f t="shared" si="0"/>
-        <v>54219445699.03418</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="40">
-        <f t="shared" si="0"/>
-        <v>56008687407.102303</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="40">
-        <f t="shared" si="0"/>
-        <v>57856974091.536674</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="40">
-        <f t="shared" si="0"/>
-        <v>59766254236.557381</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="40">
-        <f t="shared" si="0"/>
-        <v>61738540626.36377</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="40">
-        <f t="shared" si="0"/>
-        <v>63775912467.033768</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="40">
-        <f t="shared" si="0"/>
-        <v>65880517578.445877</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="40">
-        <f t="shared" si="0"/>
-        <v>68054574658.534584</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="40">
-        <f t="shared" si="0"/>
-        <v>70300375622.26622</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="40">
-        <f t="shared" si="0"/>
-        <v>72620288017.800995</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="40">
-        <f t="shared" si="0"/>
-        <v>75016757522.388428</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="40">
-        <f t="shared" si="0"/>
-        <v>77492310520.627243</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="40">
-        <f t="shared" si="0"/>
-        <v>80049556767.807938</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="D36">
         <v>0</v>
-      </c>
-      <c r="E36" s="40">
-        <f t="shared" si="0"/>
-        <v>82691192141.145599</v>
       </c>
     </row>
   </sheetData>
@@ -7280,6 +7064,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7295,12 +7080,12 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>30335</v>
@@ -7395,7 +7180,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>65366</v>
@@ -7441,7 +7226,7 @@
         <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7450,8 +7235,8 @@
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="38"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="38"/>
@@ -7467,13 +7252,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
@@ -7482,7 +7270,23 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W20" s="50">
+        <v>2280846160</v>
+      </c>
+    </row>
+    <row r="21" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>3482641054</v>
+      </c>
+    </row>
+    <row r="22" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <f>W21/W20</f>
+        <v>1.5269074763025665</v>
       </c>
     </row>
     <row r="60" spans="7:7" x14ac:dyDescent="0.25">
@@ -7513,7 +7317,8 @@
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7540,7 +7345,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -7564,7 +7369,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -7572,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -7581,38 +7386,38 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>134</v>
+      <c r="A9" s="48" t="s">
+        <v>120</v>
       </c>
       <c r="B9" s="26"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="42">
+      <c r="B17" s="40">
         <v>6497465689</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="40">
         <v>6862370246</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="42">
+      <c r="B18" s="40">
         <v>108291094820</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="40">
         <v>114372837433</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="64">
+      <c r="B19" s="62">
         <f>B17/B18</f>
         <v>5.9999999998153128E-2</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="62">
         <f>C17/C18</f>
         <v>6.0000000000174865E-2</v>
       </c>
@@ -7651,7 +7456,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7672,17 +7477,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="65">
+        <v>123</v>
+      </c>
+      <c r="B6" s="63">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="65">
+        <v>124</v>
+      </c>
+      <c r="B7" s="63">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -7691,7 +7496,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7754,227 +7559,227 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="61" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>148</v>
+      <c r="B5" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="59" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="68">
         <v>0</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="69">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="70">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="69">
         <v>5.5E-2</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="69">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="68">
         <v>5</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="69">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="69">
         <v>6.25E-2</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="69">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="68">
         <v>10</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="69">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="69">
         <v>5.5E-2</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="69">
         <v>0.04</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="69">
         <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="68">
         <v>15</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="69">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="69">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="69">
         <v>3.95E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="68">
         <v>20</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="69">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="69">
         <v>0.04</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="69">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="68">
         <v>25</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="68">
         <v>30</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="68">
         <v>35</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="68">
         <v>40</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="68">
         <v>45</v>
       </c>
-      <c r="B16" s="71">
+      <c r="B16" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="A17" s="68">
         <v>50</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="69">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -8000,11 +7805,11 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="47" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="12" max="15" width="27.28515625" customWidth="1"/>
     <col min="16" max="19" width="14.5703125" customWidth="1"/>
@@ -8028,9 +7833,9 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="43"/>
+        <v>137</v>
+      </c>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8047,351 +7852,351 @@
       <c r="A6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="86" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="89"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="106">
+        <v>112</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="104">
         <v>40178</v>
       </c>
-      <c r="D8" s="103">
+      <c r="D8" s="101">
         <v>2360173025</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="102">
         <v>12</v>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="101">
         <v>1884062115</v>
       </c>
-      <c r="G8" s="105">
+      <c r="G8" s="103">
         <v>6</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="101">
         <v>322948963</v>
       </c>
-      <c r="I8" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="89"/>
+      <c r="I8" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="106">
+        <v>112</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="104">
         <v>40543</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="101">
         <v>242581914</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="102">
         <v>12</v>
       </c>
-      <c r="F9" s="103">
+      <c r="F9" s="101">
         <v>212607844</v>
       </c>
-      <c r="G9" s="105">
+      <c r="G9" s="103">
         <v>7</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="101">
         <v>33193150</v>
       </c>
-      <c r="I9" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="89"/>
+      <c r="I9" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="106">
+        <v>112</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="104">
         <v>40908</v>
       </c>
-      <c r="D10" s="103">
+      <c r="D10" s="101">
         <v>911037989</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="102">
         <v>12</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="101">
         <v>864864695</v>
       </c>
-      <c r="G10" s="105">
+      <c r="G10" s="103">
         <v>8</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="101">
         <v>124659832</v>
       </c>
-      <c r="I10" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="89"/>
+      <c r="I10" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="106">
+        <v>112</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="104">
         <v>41274</v>
       </c>
-      <c r="D11" s="103">
+      <c r="D11" s="101">
         <v>78277759</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="102">
         <v>12</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="101">
         <v>79629762</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="103">
         <v>9</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H11" s="101">
         <v>10710961</v>
       </c>
-      <c r="I11" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="89"/>
+      <c r="I11" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="106">
+        <v>112</v>
+      </c>
+      <c r="B12" s="95"/>
+      <c r="C12" s="104">
         <v>41639</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="101">
         <v>-114027863</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="102">
         <v>12</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="101">
         <v>-123222179</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="103">
         <v>10</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="101">
         <v>-15602746</v>
       </c>
-      <c r="I12" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="89"/>
+      <c r="I12" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="106">
+        <v>112</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="104">
         <v>42004</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="101">
         <v>-206952282</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="102">
         <v>12</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="101">
         <v>-221956322</v>
       </c>
-      <c r="G13" s="105">
+      <c r="G13" s="103">
         <v>11</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="101">
         <v>-28317850</v>
       </c>
-      <c r="I13" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="89"/>
+      <c r="I13" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="106">
+        <v>112</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="104">
         <v>42369</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="101">
         <v>2586581023</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="102">
         <v>12</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="101">
         <v>2586581023</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="103">
         <v>12</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="101">
         <v>353928991</v>
       </c>
-      <c r="I14" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="89"/>
+      <c r="I14" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L24" s="78"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L25" s="78"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L26" s="78"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="81"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="79"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L27" s="78"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L28" s="78"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L29" s="78"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="84"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="82"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8439,7 +8244,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -8493,23 +8298,23 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="52"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="6" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -1293,7 +1293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1808,6 +1808,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4813,10 +4816,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,6 +5070,67 @@
       </c>
       <c r="I12" s="135">
         <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="129">
+        <v>0.18</v>
+      </c>
+      <c r="C17" s="187">
+        <f>1-B17</f>
+        <v>0.82000000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="133">
+        <v>0.155</v>
+      </c>
+      <c r="C18" s="187">
+        <f t="shared" ref="C18:C21" si="0">1-B18</f>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D18" s="24">
+        <f>C18*C17</f>
+        <v>0.69290000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="133">
+        <v>0.13</v>
+      </c>
+      <c r="C19" s="187">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="D19" s="59">
+        <f t="shared" ref="D19:D21" si="1">C19*C18</f>
+        <v>0.73514999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="133">
+        <v>0.11</v>
+      </c>
+      <c r="C20" s="187">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="D20" s="59">
+        <f t="shared" si="1"/>
+        <v>0.77429999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="133">
+        <v>0.09</v>
+      </c>
+      <c r="C21" s="187">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="D21" s="59">
+        <f t="shared" si="1"/>
+        <v>0.80990000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -6727,8 +6791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7254,8 +7318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -3201,7 +3201,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,7 +4818,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -5103,8 +5103,8 @@
         <v>0.87</v>
       </c>
       <c r="D19" s="59">
-        <f t="shared" ref="D19:D21" si="1">C19*C18</f>
-        <v>0.73514999999999997</v>
+        <f>C19*D18</f>
+        <v>0.60282300000000011</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -5116,8 +5116,8 @@
         <v>0.89</v>
       </c>
       <c r="D20" s="59">
-        <f t="shared" si="1"/>
-        <v>0.77429999999999999</v>
+        <f t="shared" ref="D20:D21" si="1">C20*D19</f>
+        <v>0.53651247000000013</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="D21" s="59">
         <f t="shared" si="1"/>
-        <v>0.80990000000000006</v>
+        <v>0.48822634770000012</v>
       </c>
     </row>
   </sheetData>
@@ -7318,8 +7318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="5" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -1764,6 +1764,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1808,9 +1811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3223,14 +3223,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174" t="s">
+      <c r="C3" s="174"/>
+      <c r="D3" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="175"/>
+      <c r="E3" s="176"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -3268,14 +3268,14 @@
       <c r="A6" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="179" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="179" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       <c r="A7" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="176">
+      <c r="B7" s="177">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -3303,12 +3303,12 @@
       <c r="A9" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="174"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -4765,10 +4765,10 @@
       <c r="A6" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="182" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="182"/>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
@@ -4785,17 +4785,17 @@
       <c r="A8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="180"/>
+      <c r="C9" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4853,32 +4853,32 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183" t="s">
+      <c r="C5" s="184"/>
+      <c r="D5" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183" t="s">
+      <c r="E5" s="184"/>
+      <c r="F5" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183" t="s">
+      <c r="G5" s="184"/>
+      <c r="H5" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="183"/>
+      <c r="I5" s="184"/>
     </row>
     <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="182"/>
-      <c r="B6" s="184" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="185" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="184"/>
+      <c r="C6" s="185"/>
       <c r="D6" s="125" t="s">
         <v>167</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="B17" s="129">
         <v>0.18</v>
       </c>
-      <c r="C17" s="187">
+      <c r="C17" s="172">
         <f>1-B17</f>
         <v>0.82000000000000006</v>
       </c>
@@ -5085,7 +5085,7 @@
       <c r="B18" s="133">
         <v>0.155</v>
       </c>
-      <c r="C18" s="187">
+      <c r="C18" s="172">
         <f t="shared" ref="C18:C21" si="0">1-B18</f>
         <v>0.84499999999999997</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="B19" s="133">
         <v>0.13</v>
       </c>
-      <c r="C19" s="187">
+      <c r="C19" s="172">
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
@@ -5111,7 +5111,7 @@
       <c r="B20" s="133">
         <v>0.11</v>
       </c>
-      <c r="C20" s="187">
+      <c r="C20" s="172">
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
@@ -5124,7 +5124,7 @@
       <c r="B21" s="133">
         <v>0.09</v>
       </c>
-      <c r="C21" s="187">
+      <c r="C21" s="172">
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="174"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -5523,17 +5523,17 @@
       <c r="A6" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="187"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="178"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="179"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -5546,10 +5546,10 @@
       <c r="A9" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="172"/>
+      <c r="C9" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5922,17 +5922,17 @@
       <c r="A4" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="179" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="179"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="178"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6410,10 +6410,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,38 +6746,165 @@
     <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="158"/>
       <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
+      <c r="C13" s="159">
+        <f>C6/B6</f>
+        <v>0.46774193548387094</v>
+      </c>
       <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
+      <c r="E13" s="159">
+        <f>E6/D6</f>
+        <v>0.58333333333333326</v>
+      </c>
       <c r="F13" s="161"/>
-      <c r="G13" s="160"/>
+      <c r="G13" s="160">
+        <f>G6/F6</f>
+        <v>0.58333333333333326</v>
+      </c>
       <c r="H13" s="162"/>
       <c r="I13" s="160"/>
     </row>
     <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="158"/>
       <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
+      <c r="C14" s="159">
+        <f t="shared" ref="C14:C19" si="0">C7/B7</f>
+        <v>0.5</v>
+      </c>
       <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
+      <c r="E14" s="159">
+        <f t="shared" ref="E14:E18" si="1">E7/D7</f>
+        <v>0.62500000000000011</v>
+      </c>
       <c r="F14" s="161"/>
-      <c r="G14" s="160"/>
+      <c r="G14" s="160">
+        <f t="shared" ref="G14:G18" si="2">G7/F7</f>
+        <v>0.62500000000000011</v>
+      </c>
       <c r="H14" s="162"/>
       <c r="I14" s="160"/>
     </row>
     <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="158"/>
       <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
+      <c r="C15" s="159">
+        <f t="shared" si="0"/>
+        <v>0.54621848739495793</v>
+      </c>
       <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
+      <c r="E15" s="159">
+        <f t="shared" si="1"/>
+        <v>0.72857142857142865</v>
+      </c>
       <c r="F15" s="161"/>
-      <c r="G15" s="160"/>
+      <c r="G15" s="160">
+        <f t="shared" si="2"/>
+        <v>0.72857142857142865</v>
+      </c>
       <c r="H15" s="162"/>
       <c r="I15" s="160"/>
     </row>
-    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="159">
+        <f t="shared" si="0"/>
+        <v>0.574585635359116</v>
+      </c>
+      <c r="E16" s="159">
+        <f t="shared" si="1"/>
+        <v>0.7192982456140351</v>
+      </c>
+      <c r="G16" s="160">
+        <f t="shared" si="2"/>
+        <v>0.7192982456140351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="159">
+        <f t="shared" si="0"/>
+        <v>0.5862068965517242</v>
+      </c>
+      <c r="E17" s="159">
+        <f t="shared" si="1"/>
+        <v>0.69897959183673475</v>
+      </c>
+      <c r="G17" s="160">
+        <f t="shared" si="2"/>
+        <v>0.69897959183673475</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="159">
+        <f t="shared" si="0"/>
+        <v>0.70990990990990988</v>
+      </c>
+      <c r="E18" s="159">
+        <f t="shared" si="1"/>
+        <v>0.734375</v>
+      </c>
+      <c r="G18" s="160">
+        <f t="shared" si="2"/>
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>B6/D6</f>
+        <v>1.7222222222222221</v>
+      </c>
+      <c r="C19" s="159">
+        <f>C6/E6</f>
+        <v>1.3809523809523809</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" ref="B20:B24" si="3">B7/D7</f>
+        <v>1.75</v>
+      </c>
+      <c r="C20" s="159">
+        <f t="shared" ref="C20:C24" si="4">C7/E7</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="C21" s="159">
+        <f t="shared" si="4"/>
+        <v>1.2745098039215685</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>1.5877192982456141</v>
+      </c>
+      <c r="C22" s="159">
+        <f t="shared" si="4"/>
+        <v>1.2682926829268291</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>1.4795918367346941</v>
+      </c>
+      <c r="C23" s="159">
+        <f t="shared" si="4"/>
+        <v>1.2408759124087592</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>1.2388392857142858</v>
+      </c>
+      <c r="C24" s="159">
+        <f t="shared" si="4"/>
+        <v>1.1975683890577506</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
@@ -7318,8 +7445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7353,10 +7480,16 @@
         <v>1.5269074763025665</v>
       </c>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G60">
         <f>66169352203/71521915397</f>
         <v>0.92516191485799448</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f>13.897/13.146</f>
+        <v>1.0571276433896242</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="5" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -6412,7 +6412,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -6767,7 +6767,7 @@
       <c r="A14" s="158"/>
       <c r="B14" s="159"/>
       <c r="C14" s="159">
-        <f t="shared" ref="C14:C19" si="0">C7/B7</f>
+        <f t="shared" ref="C14:C18" si="0">C7/B7</f>
         <v>0.5</v>
       </c>
       <c r="D14" s="159"/>
@@ -7445,13 +7445,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7478,6 +7478,12 @@
       <c r="W22">
         <f>W21/W20</f>
         <v>1.5269074763025665</v>
+      </c>
+    </row>
+    <row r="25" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <f>38687207018/108291094820</f>
+        <v>0.35725197055496904</v>
       </c>
     </row>
     <row r="60" spans="7:8" x14ac:dyDescent="0.25">
@@ -7994,7 +8000,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/NCTSERS_PlanInfo_AV2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2070,15 +2070,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>94505</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418355</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1123107</xdr:rowOff>
+      <xdr:rowOff>1180257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2101,7 +2101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467600" y="342900"/>
+          <a:off x="6572250" y="400050"/>
           <a:ext cx="5961905" cy="6742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2114,15 +2114,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4514850</xdr:colOff>
+      <xdr:colOff>4438650</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1681091</xdr:rowOff>
+      <xdr:rowOff>1719191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2145,8 +2145,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="6057900"/>
+          <a:off x="1600200" y="6096000"/>
           <a:ext cx="4381500" cy="1585841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>751740</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>27533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A3C8DC-42BD-4F59-9DC3-4F72EDD2A630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="8763000"/>
+          <a:ext cx="5876190" cy="8333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2938,7 +2982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3148,36 +3192,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Tier.param'!A1" display="Tier.param"/>
-    <hyperlink ref="B3" location="'Overview'!A1" display="Overview"/>
-    <hyperlink ref="B4" location="'FundingPolicy'!A1" display="FundingPolicy"/>
-    <hyperlink ref="B5" location="'Assumptions'!A1" display="Assumptions"/>
-    <hyperlink ref="B6" location="'SalaryGrowth'!A1" display="SalaryGrowth"/>
-    <hyperlink ref="B7" location="'Init_amort'!A1" display="Init_amort"/>
-    <hyperlink ref="B8" location="'Init_unrecReturn'!A1" display="Init_unrecReturn"/>
-    <hyperlink ref="B9" location="'External_Fund'!A1" display="External_Fund"/>
-    <hyperlink ref="B10" location="'Ret_sum'!A1" display="Ret_sum"/>
-    <hyperlink ref="B11" location="'Ret_dec'!A1" display="Ret_dec"/>
-    <hyperlink ref="B12" location="'Ret_bfactor'!A1" display="Ret_bfactor"/>
-    <hyperlink ref="B13" location="'Term_sum'!A1" display="Term_sum"/>
-    <hyperlink ref="B14" location="'Term_dec1'!A1" display="Term_dec1"/>
-    <hyperlink ref="B15" location="'Term_dec2'!A1" display="Term_dec2"/>
-    <hyperlink ref="B16" location="'Disb_sum'!A1" display="Disb_sum"/>
-    <hyperlink ref="B17" location="'Disb_dec'!A1" display="Disb_dec"/>
-    <hyperlink ref="B18" location="'Death_sum'!A1" display="Death_sum"/>
-    <hyperlink ref="B19" location="'Death_dec'!A1" display="Death_dec"/>
-    <hyperlink ref="B20" location="'DROP cashflow'!A1" display="DROP cashflow"/>
-    <hyperlink ref="B21" location="'GASB_cashflow'!A1" display="GASB_cashflow"/>
-    <hyperlink ref="B22" location="'Fiscal'!A1" display="Fiscal"/>
-    <hyperlink ref="B23" location="'Fiscal2'!A1" display="Fiscal2"/>
-    <hyperlink ref="B24" location="'Fiscal3'!A1" display="Fiscal3"/>
+    <hyperlink ref="B2" location="'Tier.param'!A1" display="Tier.param" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Overview'!A1" display="Overview" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'FundingPolicy'!A1" display="FundingPolicy" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'Assumptions'!A1" display="Assumptions" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" location="'SalaryGrowth'!A1" display="SalaryGrowth" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" location="'Init_amort'!A1" display="Init_amort" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" location="'Init_unrecReturn'!A1" display="Init_unrecReturn" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" location="'External_Fund'!A1" display="External_Fund" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" location="'Ret_sum'!A1" display="Ret_sum" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" location="'Ret_dec'!A1" display="Ret_dec" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" location="'Ret_bfactor'!A1" display="Ret_bfactor" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" location="'Term_sum'!A1" display="Term_sum" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" location="'Term_dec1'!A1" display="Term_dec1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" location="'Term_dec2'!A1" display="Term_dec2" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" location="'Disb_sum'!A1" display="Disb_sum" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" location="'Disb_dec'!A1" display="Disb_dec" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" location="'Death_sum'!A1" display="Death_sum" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" location="'Death_dec'!A1" display="Death_dec" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" location="'DROP cashflow'!A1" display="DROP cashflow" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" location="'GASB_cashflow'!A1" display="GASB_cashflow" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" location="'Fiscal'!A1" display="Fiscal" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" location="'Fiscal2'!A1" display="Fiscal2" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" location="'Fiscal3'!A1" display="Fiscal3" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1"/>
   <sheetViews>
@@ -3196,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
@@ -3410,7 +3454,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3419,7 +3463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -4711,7 +4755,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4719,7 +4763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4805,7 +4849,7 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4814,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -5143,14 +5187,14 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5472,14 +5516,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5559,7 +5603,7 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5567,7 +5611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -5881,14 +5925,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -5940,7 +5984,7 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5948,7 +5992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6304,7 +6348,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6312,7 +6356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6401,14 +6445,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -6907,7 +6951,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6915,11 +6959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7251,7 +7295,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7260,7 +7304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B3:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7395,7 +7439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E73"/>
   <sheetViews>
@@ -7442,10 +7486,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
@@ -7517,7 +7561,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7526,12 +7570,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7627,7 +7671,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7636,12 +7680,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,7 +7762,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7727,7 +7771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -7988,14 +8032,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -8403,7 +8447,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8412,7 +8456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8521,7 +8565,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
